--- a/data/hotels_by_city/Dallas/Dallas_shard_470.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_470.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="347">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Juan S</t>
+  </si>
+  <si>
     <t>06/14/2018</t>
   </si>
   <si>
@@ -186,6 +189,9 @@
     <t>Well they fixed the massive parking lot holes since I visited 2 yrs ago. The value vs comfort is good for business. 49.00 total for one night, comfortable bed, friendly staff and location, is not bad.However, if your looking for more of an onviance or outside comforts, this is not for you.Multi fuel stations with the cheapest has prices, there here.Eateries are walking distance.More</t>
   </si>
   <si>
+    <t>stmaryalum</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r498283745-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -210,6 +216,9 @@
     <t>there were burn holes in the bedspread, old blood stain and hole in the top sheet, red stain on the bottom sheet, breakfast @ 6:10 am..no coffee, 1 sweet roll, 1 pk muffins left,(replenished with 2 sweet rolls and 2 pkg muffins) no bread, no cereal, no milk, no bagels, no juice, no yogurt..in other words..nothing much.More</t>
   </si>
   <si>
+    <t>Vickie D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r488908761-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -229,6 +238,9 @@
   </si>
   <si>
     <t>Okay...I get that you get what you pay for but dang!!  Started at 45.00 for the night ended up being charged 90.00 when all was said and done.  The picture of the lobby is just a flat out lie....not even close.  Stunk to high heaven, filthy, nasty, dirty in room and parking lot.  A/C not working as well as it should.  Find any place else....not here.More</t>
+  </si>
+  <si>
+    <t>Sidney R</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r486278687-Knights_Inn_Greenville-Greenville_Texas.html</t>
@@ -254,6 +266,9 @@
 We got to the room and the first thing I noticed was that the door wouldn't stay closed. It looked like it had been kicked open and not repaired .  We did finally get the deadbolt to latch along with the other latch. The furniture was cheap and had water spots and was warped. The upholstery on the chair was dirty. There were three flat, flimsy pillows on the bed. I noticed spots on the pillow cases. They were all stained. There was a large ink stain on the sheet. The towels were supposed to be white. I guess they don't know that things aren't good forever, and have not discovered bleach. I wouldn't use the wash cloths in my kitchen, much less...Just awful!! We made a reservation through a website before we got there and they didn't know anything about it. There were five men and one woman - all Indian with limited English skills - at the front desk. They were all confused and saying different things. I got the idea none of them knew what they were doing. But, we did finally convince them to give us a room. We had reserved a room with two double beds, only because it was less than the room with one king bed. They gave us a room with one king bed and said it would be cheaper. By that time, we didn't really care. It was nearly midnight. We got to the room and the first thing I noticed was that the door wouldn't stay closed. It looked like it had been kicked open and not repaired .  We did finally get the deadbolt to latch along with the other latch. The furniture was cheap and had water spots and was warped. The upholstery on the chair was dirty. There were three flat, flimsy pillows on the bed. I noticed spots on the pillow cases. They were all stained. There was a large ink stain on the sheet. The towels were supposed to be white. I guess they don't know that things aren't good forever, and have not discovered bleach. I wouldn't use the wash cloths in my kitchen, much less in the bathroom. I put one towel on the floor of the bathroom as a mat mad and dried off with the bathmat because it looked the cleanest. There were places where the wall was damaged and poorly repaired. The door punched a hole in the wall. There was mold around the tub. I saw a roach the second day. Several of the lights didn't work. We have yet to know how many charges will be on the credit card, or how much it will be, because they said the website hadn't paid them and made my boyfriend return to the office after we had gotten settled twice. He went the next day to talk to the owner, whom he said was clueless too. Don't stay here. I thought that as a part of the Wyndham chain, it would be up to some sort of standards, but clearly it wasn't.More</t>
   </si>
   <si>
+    <t>Aristole</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r330409564-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -275,6 +290,9 @@
     <t>Hey, if I can find a good bed and it is clean and comfortable, I try it. I paid two nights and the manger very courteous refunded the one night. I do not like going in side for a room. Outside where the luggage and I can get to my car.The price is right for what you get.More</t>
   </si>
   <si>
+    <t>mariew31</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r314577137-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -296,6 +314,9 @@
     <t>Not a an acceptable room for a female traveling solo. I was definitely not comfortable sitting my bags on the floor do to the dirt and smell. I was so tired as I was driving from Indiana to San Antonio and desperate to sleep otherwise I would have never been willing to accept the room.More</t>
   </si>
   <si>
+    <t>956donaldg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r300907964-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -314,6 +335,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>631donalds</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r291972688-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -335,6 +359,9 @@
     <t>half lights didn't work.....had dead flies in bathroom they never did sweep up,changed sheets every other day...marked sheet so I know,no trash bag liners,half the time no coffee for "continental" breakfast...asked for extra pillows on check in counter person said he had to check laundry?  never did get them.overall was cheap place to stay was able to get smoking room...this trip was due to family illness so we didn't stay in room muchMore</t>
   </si>
   <si>
+    <t>374jeffreyj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r287441252-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -347,6 +374,9 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>379alisac</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r284527996-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -356,6 +386,9 @@
     <t>06/30/2015</t>
   </si>
   <si>
+    <t>Michelle F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r256248148-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -368,6 +401,9 @@
     <t>February 2015</t>
   </si>
   <si>
+    <t>Deborah D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r250938914-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -386,6 +422,9 @@
     <t>January 2015</t>
   </si>
   <si>
+    <t>Terry G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r250085358-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -404,12 +443,18 @@
     <t>I expected more than I got for the price. First, there was a funky smell in the room. I attribute it to the badly stained carpet, which is need of replacement. The room furniture was also well worn. Second, there were 15-20 small dead bugs, possibly baby cockroaches, in the bathroom on the floor. Third, there were several missing light bulbs in the room.  I understand that this I one way to reduce electricity consumption but it seems cheap. Last, the breakfast was sparse; although, there was yogurt which seems to be the first item eliminated in an effort to reduce costs. On a positive note, I slept well probably due to aromatherapy. After supper, I stopped by the local Walmart and purchased lavender-scented Frebreze to combat the funky odor. I sprayed it heavily throughout the room. I would also add that the staff was very helpful and courteous.More</t>
   </si>
   <si>
+    <t>ronkeo2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r250076770-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
     <t>250076770</t>
   </si>
   <si>
+    <t>anissaj2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r247564012-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -422,6 +467,9 @@
     <t>December 2014</t>
   </si>
   <si>
+    <t>FredAckelbee</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r246619380-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -437,6 +485,9 @@
     <t>We were travelling through Greenville, Texas and stayed at this Days Inn, using Wyndham Reward points.  Usually when we travel using points, we are given "last resort" rooms, but this time was wonderful. Room was "older" but clean and comfortable on ground floor.</t>
   </si>
   <si>
+    <t>davidpW9088SB</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r245696748-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -446,6 +497,9 @@
     <t>12/23/2014</t>
   </si>
   <si>
+    <t>Bob S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r244748061-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -455,6 +509,9 @@
     <t>12/16/2014</t>
   </si>
   <si>
+    <t>A W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r240901275-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -467,6 +524,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>Clifford S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r240439255-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -485,6 +545,9 @@
     <t>November 2014</t>
   </si>
   <si>
+    <t>cavedog1965</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r234866869-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -503,6 +566,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Malena M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r233255510-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -512,6 +578,9 @@
     <t>10/08/2014</t>
   </si>
   <si>
+    <t>Jeffrey H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r230475476-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -530,6 +599,9 @@
     <t>September 2014</t>
   </si>
   <si>
+    <t>Mickey C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r229336674-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -539,6 +611,9 @@
     <t>09/16/2014</t>
   </si>
   <si>
+    <t>Ronald P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r222748756-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -551,6 +626,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>Susan R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r200393163-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -563,6 +641,9 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>Chase5566</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r200100837-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -581,6 +662,9 @@
     <t>Traveling through the area I stayed the night at this Days Inn because generally Days Inns are decent cheap places to stay if you don't need any frills. This was an okay place to sleep but that's about all. Bed was semi comfortable, but other than that I was not impressed. Bathroom had some updates, but there must have been a leak in the wall because around the floor boards you could see it somewhat was rotted away and there was a huge wet spot on the carpet near the bathroom door. There really wasn't any breakfast (2 types of cereal, some mil, orange juice, honey buns, single slices of bread, single half slices of bagels, and a single apple). The coffee was even empty and we rang the front office bell to ask for more and waited in there 20 minutes while i ate a bowl of cereal, but we never saw a worker at the front desk come around. So really don't count on the "free breakfast". Could be okay of they make a few changes and clean the place up a little, but we won't be staying there on our way back through town.More</t>
   </si>
   <si>
+    <t>Sheri_sheray</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r198020420-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -596,6 +680,9 @@
     <t>Staff were friendly. They offered weekly rate which helped with hotel cost!  Overall it was a great stay for our 6 days. Will definitely go back. Only "issue" was our heater/air conditioner started making a squealing noise. Front desk was called and we were moved to the room next door in less than 15 minutes.</t>
   </si>
   <si>
+    <t>Dennis O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r192160114-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -608,6 +695,9 @@
     <t>January 2014</t>
   </si>
   <si>
+    <t>Abigail P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r188688430-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -620,6 +710,9 @@
     <t>December 2013</t>
   </si>
   <si>
+    <t>Don T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r187693965-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -629,6 +722,9 @@
     <t>12/15/2013</t>
   </si>
   <si>
+    <t>Ryan H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r186998363-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -638,6 +734,9 @@
     <t>12/07/2013</t>
   </si>
   <si>
+    <t>Bryan F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r185723338-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -650,6 +749,9 @@
     <t>November 2013</t>
   </si>
   <si>
+    <t>James H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r181188626-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -662,6 +764,9 @@
     <t>October 2013</t>
   </si>
   <si>
+    <t>Melinda F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r177821809-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -674,6 +779,9 @@
     <t>September 2013</t>
   </si>
   <si>
+    <t>Mama2010</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r176440882-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -690,6 +798,9 @@
   </si>
   <si>
     <t>August 2013</t>
+  </si>
+  <si>
+    <t>Amber B</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r172852743-Knights_Inn_Greenville-Greenville_Texas.html</t>
@@ -723,6 +834,9 @@
   The location is wonderful. It is literally right off of I-30. There is an iHop, Tamolly's, Chili's and Walmart all less than 5 minutes down the road. There is also a very cute little movie...Me and my husband stayed here in mid July  for one night on our trip back from Galveston to Texarkana. The lobby was very nice and clean, and the staff was very friendly.The room was pretty small, much smaller than the Super 8 that we stayed in while in Galveston for about the same price, but for one night that didn't bother us. The bed was comfortable, the room was very clean, the mini fridge and microwave worked fine. The TV worked but there weren't a lot of channels so you would get static on almost every other channel. the shower was clean and hot water worked great. The AC worked great. The only problems I really had were that you could hear EVERYTHING outside the room. You could easily hear a conversation between people outside 3 or 4 rooms down, and you could hear someone talking loudly or slamming car doors all the way across the parking lot. Also, there was a vent in the bathroom that obviously led to the street at the back or side of the building because when you were in there you could hear dogs barking and cars driving by as if you were in the street yourself.  The location is wonderful. It is literally right off of I-30. There is an iHop, Tamolly's, Chili's and Walmart all less than 5 minutes down the road. There is also a very cute little movie theater, Majestic 12, a couple minutes down the road that we went to and we loved it because we only have a large theater in our hometown.  Overall it was very nice for a one night stay, but not sure if I would have stayed for longer than that.More</t>
   </si>
   <si>
+    <t>Doug K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r167504985-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -732,6 +846,9 @@
     <t>07/14/2013</t>
   </si>
   <si>
+    <t>Nicole S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r165496986-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -750,6 +867,9 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>Peace A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r165146957-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -759,6 +879,9 @@
     <t>06/24/2013</t>
   </si>
   <si>
+    <t>Mildred B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r152180368-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -771,6 +894,9 @@
     <t>February 2013</t>
   </si>
   <si>
+    <t>CLEDITH W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r148297363-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -783,6 +909,9 @@
     <t>December 2012</t>
   </si>
   <si>
+    <t>airman74</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r147035890-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -798,6 +927,9 @@
     <t>I did stay at this hotel for one night for business. Price was reasonable, room was clean but wifi did not work at all. The area is quiet noisy.I believe this hotel is a good option for having a good shower and a good night sleep. Friendly staff.</t>
   </si>
   <si>
+    <t>asherdasher63</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r146839001-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -819,6 +951,9 @@
     <t>We stayed here for around a month while my boyfriend and their crew worked in the next town over. The breakfast in the morning was juice and honey buns, not really my thing so I usually skipped breakfast. The rooms were actually pretty nice they looked newly redone to me. But the beds were small for two people so you camped together although they were comfortable. The a/c worked great which was a plus. The toilet had to be flushed multiple times before it would go down. There were two tornados that went through the area while we there and luckily we had friends on the first floor. Other wise we would have been stuck on the second floor because they never told us if they had a shelter or not just came and told us that we were under a tornado warning. The pool was opened up about a week before we left so we were able to use it. It was a little cold since it was just filled but it was deep at the end so it was fun on hot days. I liked the location it was in because you weren't in the middle of town but just a short drive down the highway to get to everything. I would probably stay here again given the other choices that were down the road some not so nice others way too nice.More</t>
   </si>
   <si>
+    <t>BILL B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r143569434-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -831,6 +966,9 @@
     <t>October 2012</t>
   </si>
   <si>
+    <t>RACHEL H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r142150537-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -849,6 +987,9 @@
     <t>Our remote control didn't work at all, the room smelled funny (like old lady almost), there was an ink stain on our sheets, and when we looked under the bed to see if we were leaving anything, we saw a bunch of trash, cigarette buds (in a "smoke-free" room). Our drain plug in the tub didn't work either. We asked the front desk to be careful when cleaning our room since we had brought our cat with us and we didn't want her to run out of the room while they were cleaning. We ended up being in the room and housekeeping didn't even knock but they barged right into the room. We thought my cat was making noise and we were in the bathroom. My husband walked out of the room to let her know we were there and she wouldn't leave. I don't think she understood us. Anyway that was all of the bad things. The bed was really comfortable and we were given plenty of pillows. More</t>
   </si>
   <si>
+    <t>PaulaJane_12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r136429179-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -870,6 +1011,9 @@
     <t>We went on a family vacation and had book two rooms 3 months in advance. We stayed 5 days and never had housekeeping come and clean never had clean towels and when we called the office to request towels we were told that the lady was new and couldn't get us towels and that we would have to wait for housekeeping. On Sunday we went to church with some friends we were gone 5 hours and housekeeping never came we had to use our beach towels to use to dry with after a shower. We live in Oklahoma after we drove 6 hours I checked my bank account and noticed I was charged 50 dollars from Days Inn. When I called and asked why I was told because we stole a blanket and pillow from the room. I told the guy who answered the phone that we never stole anything and he said he checked the rooms himself. I was very upset with the staff who was all rude when we asked for housekeeping or for clean towels. I wouldn't recommend this hotel to any of my friends who like to travel.More</t>
   </si>
   <si>
+    <t>TDBaxter</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r132882115-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -888,6 +1032,9 @@
     <t>June 2012</t>
   </si>
   <si>
+    <t>Liz R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r132620313-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -901,6 +1048,9 @@
   </si>
   <si>
     <t>Very old and run down, stuff even on the ceilings, but nice management.</t>
+  </si>
+  <si>
+    <t>EBovary</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r131782782-Knights_Inn_Greenville-Greenville_Texas.html</t>
@@ -1423,43 +1573,47 @@
       <c r="A2" t="n">
         <v>7998</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>118065</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1471,56 +1625,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>7998</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>162754</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
@@ -1536,56 +1694,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>7998</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>162755</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" t="s">
         <v>64</v>
-      </c>
-      <c r="G4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" t="s">
-        <v>68</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>69</v>
-      </c>
-      <c r="O4" t="s">
-        <v>62</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1597,56 +1759,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>7998</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>92271</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
         <v>72</v>
       </c>
-      <c r="J5" t="s">
-        <v>73</v>
-      </c>
-      <c r="K5" t="s">
-        <v>74</v>
-      </c>
-      <c r="L5" t="s">
-        <v>75</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
-        <v>69</v>
-      </c>
       <c r="O5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -1664,56 +1830,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>7998</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>162756</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="J6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="L6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="O6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
@@ -1731,56 +1901,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>7998</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>162757</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="J7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
         <v>88</v>
       </c>
-      <c r="L7" t="s">
-        <v>89</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="s">
-        <v>83</v>
-      </c>
       <c r="O7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P7" t="n">
         <v>3</v>
@@ -1802,54 +1976,58 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>7998</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>162758</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="O8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P8" t="n">
         <v>4</v>
@@ -1871,56 +2049,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>7998</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>162759</v>
+      </c>
+      <c r="C9" t="s">
+        <v>105</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="J9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="K9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="L9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="O9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P9" t="n">
         <v>3</v>
@@ -1942,54 +2124,58 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>7998</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>162760</v>
+      </c>
+      <c r="C10" t="s">
+        <v>113</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="J10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="O10" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P10" t="n">
         <v>1</v>
@@ -2009,41 +2195,45 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y10" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>7998</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>162761</v>
+      </c>
+      <c r="C11" t="s">
+        <v>118</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="J11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -2051,10 +2241,10 @@
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="O11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P11" t="n">
         <v>3</v>
@@ -2075,49 +2265,50 @@
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
-      <c r="Y11" t="s"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>7998</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>18293</v>
+      </c>
+      <c r="C12" t="s">
+        <v>122</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="J12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="O12" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P12" t="n">
         <v>3</v>
@@ -2141,50 +2332,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>7998</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>36156</v>
+      </c>
+      <c r="C13" t="s">
+        <v>127</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="J13" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="K13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="L13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="O13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P13" t="n">
         <v>1</v>
@@ -2202,50 +2397,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>7998</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>7403</v>
+      </c>
+      <c r="C14" t="s">
+        <v>134</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="J14" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="K14" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="L14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="O14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2265,35 +2464,39 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>7998</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>162762</v>
+      </c>
+      <c r="C15" t="s">
+        <v>141</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="J15" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="K15" t="s"/>
       <c r="L15" t="s"/>
@@ -2301,10 +2504,10 @@
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="O15" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P15" t="n">
         <v>3</v>
@@ -2325,36 +2528,37 @@
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
-      <c r="Y15" t="s"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>7998</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>162763</v>
+      </c>
+      <c r="C16" t="s">
+        <v>144</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="J16" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="K16" t="s"/>
       <c r="L16" t="s"/>
@@ -2362,10 +2566,10 @@
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="O16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
@@ -2386,51 +2590,52 @@
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
-      <c r="Y16" t="s"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>7998</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>162764</v>
+      </c>
+      <c r="C17" t="s">
+        <v>149</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="J17" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="K17" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="L17" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="O17" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2448,35 +2653,39 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>7998</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>162765</v>
+      </c>
+      <c r="C18" t="s">
+        <v>155</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="J18" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="K18" t="s"/>
       <c r="L18" t="s"/>
@@ -2484,10 +2693,10 @@
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="O18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P18" t="n">
         <v>1</v>
@@ -2508,36 +2717,37 @@
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s"/>
-      <c r="X18" t="s"/>
-      <c r="Y18" t="s"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>7998</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>5778</v>
+      </c>
+      <c r="C19" t="s">
+        <v>159</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="J19" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="K19" t="s"/>
       <c r="L19" t="s"/>
@@ -2545,10 +2755,10 @@
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="O19" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P19" t="n">
         <v>4</v>
@@ -2569,36 +2779,37 @@
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
-      <c r="Y19" t="s"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>7998</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>91255</v>
+      </c>
+      <c r="C20" t="s">
+        <v>163</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="J20" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="K20" t="s"/>
       <c r="L20" t="s"/>
@@ -2606,10 +2817,10 @@
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="O20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P20" t="n">
         <v>3</v>
@@ -2630,51 +2841,52 @@
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s"/>
-      <c r="X20" t="s"/>
-      <c r="Y20" t="s"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>7998</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>24824</v>
+      </c>
+      <c r="C21" t="s">
+        <v>168</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="J21" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="K21" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="L21" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="O21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P21" t="n">
         <v>3</v>
@@ -2698,50 +2910,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>7998</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>162766</v>
+      </c>
+      <c r="C22" t="s">
+        <v>175</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="J22" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="K22" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="L22" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="O22" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -2755,35 +2971,39 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>7998</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>162767</v>
+      </c>
+      <c r="C23" t="s">
+        <v>182</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="J23" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="K23" t="s"/>
       <c r="L23" t="s"/>
@@ -2791,10 +3011,10 @@
         <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="O23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P23" t="n">
         <v>2</v>
@@ -2815,51 +3035,52 @@
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
-      <c r="Y23" t="s"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>7998</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>11988</v>
+      </c>
+      <c r="C24" t="s">
+        <v>186</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="J24" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="K24" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="L24" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="M24" t="n">
         <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="O24" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P24" t="n">
         <v>1</v>
@@ -2883,48 +3104,52 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>7998</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>162768</v>
+      </c>
+      <c r="C25" t="s">
+        <v>193</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="J25" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="K25" t="s"/>
       <c r="L25" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="M25" t="n">
         <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="O25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P25" t="n">
         <v>2</v>
@@ -2948,35 +3173,39 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>7998</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>50184</v>
+      </c>
+      <c r="C26" t="s">
+        <v>197</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="J26" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="K26" t="s"/>
       <c r="L26" t="s"/>
@@ -2984,10 +3213,10 @@
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="O26" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P26" t="n">
         <v>3</v>
@@ -3008,36 +3237,37 @@
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s"/>
-      <c r="X26" t="s"/>
-      <c r="Y26" t="s"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>7998</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>3802</v>
+      </c>
+      <c r="C27" t="s">
+        <v>202</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="J27" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="K27" t="s"/>
       <c r="L27" t="s"/>
@@ -3045,10 +3275,10 @@
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="O27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P27" t="n">
         <v>3</v>
@@ -3067,51 +3297,52 @@
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
-      <c r="Y27" t="s"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>7998</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>162769</v>
+      </c>
+      <c r="C28" t="s">
+        <v>207</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="J28" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="K28" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="L28" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="M28" t="n">
         <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="O28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P28" t="n">
         <v>3</v>
@@ -3135,50 +3366,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>7998</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>162770</v>
+      </c>
+      <c r="C29" t="s">
+        <v>214</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="J29" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="K29" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="L29" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="O29" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3192,35 +3427,39 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>7998</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>40913</v>
+      </c>
+      <c r="C30" t="s">
+        <v>220</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>192</v>
+        <v>221</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="J30" t="s">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="K30" t="s"/>
       <c r="L30" t="s"/>
@@ -3228,10 +3467,10 @@
         <v>2</v>
       </c>
       <c r="N30" t="s">
-        <v>195</v>
+        <v>224</v>
       </c>
       <c r="O30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P30" t="n">
         <v>2</v>
@@ -3252,36 +3491,37 @@
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
-      <c r="Y30" t="s"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>7998</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>162771</v>
+      </c>
+      <c r="C31" t="s">
+        <v>225</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="J31" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="K31" t="s"/>
       <c r="L31" t="s"/>
@@ -3289,10 +3529,10 @@
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="O31" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P31" t="n">
         <v>1</v>
@@ -3313,36 +3553,37 @@
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
-      <c r="Y31" t="s"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>7998</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>37573</v>
+      </c>
+      <c r="C32" t="s">
+        <v>230</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="J32" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="K32" t="s"/>
       <c r="L32" t="s"/>
@@ -3350,10 +3591,10 @@
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="O32" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P32" t="n">
         <v>3</v>
@@ -3374,36 +3615,37 @@
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
-      <c r="Y32" t="s"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>7998</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>29885</v>
+      </c>
+      <c r="C33" t="s">
+        <v>234</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="J33" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="K33" t="s"/>
       <c r="L33" t="s"/>
@@ -3411,10 +3653,10 @@
         <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="O33" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P33" t="n">
         <v>3</v>
@@ -3435,36 +3677,37 @@
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
-      <c r="Y33" t="s"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>7998</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>102904</v>
+      </c>
+      <c r="C34" t="s">
+        <v>238</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>206</v>
+        <v>239</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="J34" t="s">
-        <v>208</v>
+        <v>241</v>
       </c>
       <c r="K34" t="s"/>
       <c r="L34" t="s"/>
@@ -3472,10 +3715,10 @@
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>209</v>
+        <v>242</v>
       </c>
       <c r="O34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -3496,36 +3739,37 @@
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
-      <c r="Y34" t="s"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>7998</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>5091</v>
+      </c>
+      <c r="C35" t="s">
+        <v>243</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>210</v>
+        <v>244</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>211</v>
+        <v>245</v>
       </c>
       <c r="J35" t="s">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="K35" t="s"/>
       <c r="L35" t="s"/>
@@ -3533,10 +3777,10 @@
         <v>2</v>
       </c>
       <c r="N35" t="s">
-        <v>213</v>
+        <v>247</v>
       </c>
       <c r="O35" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P35" t="n">
         <v>1</v>
@@ -3557,36 +3801,37 @@
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s"/>
-      <c r="X35" t="s"/>
-      <c r="Y35" t="s"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>7998</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>23873</v>
+      </c>
+      <c r="C36" t="s">
+        <v>248</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>214</v>
+        <v>249</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="J36" t="s">
-        <v>216</v>
+        <v>251</v>
       </c>
       <c r="K36" t="s"/>
       <c r="L36" t="s"/>
@@ -3594,10 +3839,10 @@
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>217</v>
+        <v>252</v>
       </c>
       <c r="O36" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P36" t="n">
         <v>2</v>
@@ -3618,51 +3863,52 @@
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
-      <c r="Y36" t="s"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>7998</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>162772</v>
+      </c>
+      <c r="C37" t="s">
+        <v>253</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>218</v>
+        <v>254</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="J37" t="s">
-        <v>220</v>
+        <v>256</v>
       </c>
       <c r="K37" t="s">
-        <v>221</v>
+        <v>257</v>
       </c>
       <c r="L37" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>223</v>
+        <v>259</v>
       </c>
       <c r="O37" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P37" t="n">
         <v>4</v>
@@ -3686,50 +3932,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>7998</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>572</v>
+      </c>
+      <c r="C38" t="s">
+        <v>260</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>224</v>
+        <v>261</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>225</v>
+        <v>262</v>
       </c>
       <c r="J38" t="s">
-        <v>226</v>
+        <v>263</v>
       </c>
       <c r="K38" t="s">
-        <v>227</v>
+        <v>264</v>
       </c>
       <c r="L38" t="s">
-        <v>228</v>
+        <v>265</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>229</v>
+        <v>266</v>
       </c>
       <c r="O38" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P38" t="n">
         <v>4</v>
@@ -3753,35 +4003,39 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>230</v>
+        <v>267</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>7998</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>9440</v>
+      </c>
+      <c r="C39" t="s">
+        <v>268</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>231</v>
+        <v>269</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="J39" t="s">
-        <v>233</v>
+        <v>271</v>
       </c>
       <c r="K39" t="s"/>
       <c r="L39" t="s"/>
@@ -3789,10 +4043,10 @@
         <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>229</v>
+        <v>266</v>
       </c>
       <c r="O39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -3813,51 +4067,52 @@
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s"/>
-      <c r="X39" t="s"/>
-      <c r="Y39" t="s"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>7998</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>27971</v>
+      </c>
+      <c r="C40" t="s">
+        <v>272</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>234</v>
+        <v>273</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>235</v>
+        <v>274</v>
       </c>
       <c r="J40" t="s">
-        <v>236</v>
+        <v>275</v>
       </c>
       <c r="K40" t="s">
-        <v>237</v>
+        <v>276</v>
       </c>
       <c r="L40" t="s">
-        <v>238</v>
+        <v>277</v>
       </c>
       <c r="M40" t="n">
         <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="O40" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P40" t="n">
         <v>3</v>
@@ -3881,35 +4136,39 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>238</v>
+        <v>277</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>7998</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>162773</v>
+      </c>
+      <c r="C41" t="s">
+        <v>279</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="J41" t="s">
-        <v>242</v>
+        <v>282</v>
       </c>
       <c r="K41" t="s"/>
       <c r="L41" t="s"/>
@@ -3917,10 +4176,10 @@
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="O41" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P41" t="n">
         <v>2</v>
@@ -3941,49 +4200,50 @@
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
-      <c r="Y41" t="s"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>7998</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>162774</v>
+      </c>
+      <c r="C42" t="s">
+        <v>283</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>243</v>
+        <v>284</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>244</v>
+        <v>285</v>
       </c>
       <c r="J42" t="s">
-        <v>245</v>
+        <v>286</v>
       </c>
       <c r="K42" t="s"/>
       <c r="L42" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>246</v>
+        <v>287</v>
       </c>
       <c r="O42" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -4007,35 +4267,39 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>7998</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>162775</v>
+      </c>
+      <c r="C43" t="s">
+        <v>288</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>247</v>
+        <v>289</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>248</v>
+        <v>290</v>
       </c>
       <c r="J43" t="s">
-        <v>249</v>
+        <v>291</v>
       </c>
       <c r="K43" t="s"/>
       <c r="L43" t="s"/>
@@ -4043,10 +4307,10 @@
         <v>3</v>
       </c>
       <c r="N43" t="s">
-        <v>250</v>
+        <v>292</v>
       </c>
       <c r="O43" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P43" t="n">
         <v>4</v>
@@ -4067,42 +4331,43 @@
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
-      <c r="Y43" t="s"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>7998</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>162776</v>
+      </c>
+      <c r="C44" t="s">
+        <v>293</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>251</v>
+        <v>294</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>252</v>
+        <v>295</v>
       </c>
       <c r="J44" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="K44" t="s">
-        <v>254</v>
+        <v>297</v>
       </c>
       <c r="L44" t="s">
-        <v>255</v>
+        <v>298</v>
       </c>
       <c r="M44" t="n">
         <v>3</v>
@@ -4131,50 +4396,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>255</v>
+        <v>298</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>7998</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>162777</v>
+      </c>
+      <c r="C45" t="s">
+        <v>299</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>256</v>
+        <v>300</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>257</v>
+        <v>301</v>
       </c>
       <c r="J45" t="s">
-        <v>258</v>
+        <v>302</v>
       </c>
       <c r="K45" t="s">
-        <v>259</v>
+        <v>303</v>
       </c>
       <c r="L45" t="s">
-        <v>260</v>
+        <v>304</v>
       </c>
       <c r="M45" t="n">
         <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>261</v>
+        <v>305</v>
       </c>
       <c r="O45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P45" t="n">
         <v>3</v>
@@ -4198,35 +4467,39 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>262</v>
+        <v>306</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>7998</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>162778</v>
+      </c>
+      <c r="C46" t="s">
+        <v>307</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>263</v>
+        <v>308</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>264</v>
+        <v>309</v>
       </c>
       <c r="J46" t="s">
-        <v>265</v>
+        <v>310</v>
       </c>
       <c r="K46" t="s"/>
       <c r="L46" t="s"/>
@@ -4234,10 +4507,10 @@
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>266</v>
+        <v>311</v>
       </c>
       <c r="O46" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P46" t="n">
         <v>3</v>
@@ -4258,51 +4531,52 @@
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s"/>
-      <c r="X46" t="s"/>
-      <c r="Y46" t="s"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>7998</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>41810</v>
+      </c>
+      <c r="C47" t="s">
+        <v>312</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>267</v>
+        <v>313</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>268</v>
+        <v>314</v>
       </c>
       <c r="J47" t="s">
-        <v>269</v>
+        <v>315</v>
       </c>
       <c r="K47" t="s">
-        <v>270</v>
+        <v>316</v>
       </c>
       <c r="L47" t="s">
-        <v>271</v>
+        <v>317</v>
       </c>
       <c r="M47" t="n">
         <v>3</v>
       </c>
       <c r="N47" t="s">
-        <v>266</v>
+        <v>311</v>
       </c>
       <c r="O47" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P47" t="n">
         <v>3</v>
@@ -4326,50 +4600,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>272</v>
+        <v>318</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>7998</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>162779</v>
+      </c>
+      <c r="C48" t="s">
+        <v>319</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>273</v>
+        <v>320</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>274</v>
+        <v>321</v>
       </c>
       <c r="J48" t="s">
-        <v>275</v>
+        <v>322</v>
       </c>
       <c r="K48" t="s">
-        <v>276</v>
+        <v>323</v>
       </c>
       <c r="L48" t="s">
-        <v>277</v>
+        <v>324</v>
       </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>278</v>
+        <v>325</v>
       </c>
       <c r="O48" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P48" t="n">
         <v>1</v>
@@ -4393,50 +4671,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>279</v>
+        <v>326</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>7998</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>162780</v>
+      </c>
+      <c r="C49" t="s">
+        <v>327</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>280</v>
+        <v>328</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>281</v>
+        <v>329</v>
       </c>
       <c r="J49" t="s">
-        <v>282</v>
+        <v>330</v>
       </c>
       <c r="K49" t="s">
-        <v>283</v>
+        <v>331</v>
       </c>
       <c r="L49" t="s">
-        <v>284</v>
+        <v>332</v>
       </c>
       <c r="M49" t="n">
         <v>2</v>
       </c>
       <c r="N49" t="s">
-        <v>285</v>
+        <v>333</v>
       </c>
       <c r="O49" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P49" t="n">
         <v>1</v>
@@ -4460,50 +4742,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>284</v>
+        <v>332</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>7998</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>1747</v>
+      </c>
+      <c r="C50" t="s">
+        <v>334</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>286</v>
+        <v>335</v>
       </c>
       <c r="G50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>287</v>
+        <v>336</v>
       </c>
       <c r="J50" t="s">
-        <v>288</v>
+        <v>337</v>
       </c>
       <c r="K50" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="L50" t="s">
-        <v>290</v>
+        <v>339</v>
       </c>
       <c r="M50" t="n">
         <v>2</v>
       </c>
       <c r="N50" t="s">
-        <v>285</v>
+        <v>333</v>
       </c>
       <c r="O50" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P50" t="n">
         <v>1</v>
@@ -4527,50 +4813,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>290</v>
+        <v>339</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>7998</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>82778</v>
+      </c>
+      <c r="C51" t="s">
+        <v>340</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>291</v>
+        <v>341</v>
       </c>
       <c r="G51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>292</v>
+        <v>342</v>
       </c>
       <c r="J51" t="s">
-        <v>293</v>
+        <v>343</v>
       </c>
       <c r="K51" t="s">
-        <v>294</v>
+        <v>344</v>
       </c>
       <c r="L51" t="s">
-        <v>295</v>
+        <v>345</v>
       </c>
       <c r="M51" t="n">
         <v>3</v>
       </c>
       <c r="N51" t="s">
-        <v>285</v>
+        <v>333</v>
       </c>
       <c r="O51" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P51" t="n">
         <v>4</v>
@@ -4594,7 +4884,7 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_470.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_470.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="416">
   <si>
     <t>STR#</t>
   </si>
@@ -147,10 +147,7 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Juan S</t>
-  </si>
-  <si>
-    <t>06/14/2018</t>
+    <t>08/24/2018</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r545601981-Knights_Inn_Greenville-Greenville_Texas.html</t>
@@ -189,9 +186,6 @@
     <t>Well they fixed the massive parking lot holes since I visited 2 yrs ago. The value vs comfort is good for business. 49.00 total for one night, comfortable bed, friendly staff and location, is not bad.However, if your looking for more of an onviance or outside comforts, this is not for you.Multi fuel stations with the cheapest has prices, there here.Eateries are walking distance.More</t>
   </si>
   <si>
-    <t>stmaryalum</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r498283745-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -216,9 +210,6 @@
     <t>there were burn holes in the bedspread, old blood stain and hole in the top sheet, red stain on the bottom sheet, breakfast @ 6:10 am..no coffee, 1 sweet roll, 1 pk muffins left,(replenished with 2 sweet rolls and 2 pkg muffins) no bread, no cereal, no milk, no bagels, no juice, no yogurt..in other words..nothing much.More</t>
   </si>
   <si>
-    <t>Vickie D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r488908761-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -238,9 +229,6 @@
   </si>
   <si>
     <t>Okay...I get that you get what you pay for but dang!!  Started at 45.00 for the night ended up being charged 90.00 when all was said and done.  The picture of the lobby is just a flat out lie....not even close.  Stunk to high heaven, filthy, nasty, dirty in room and parking lot.  A/C not working as well as it should.  Find any place else....not here.More</t>
-  </si>
-  <si>
-    <t>Sidney R</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r486278687-Knights_Inn_Greenville-Greenville_Texas.html</t>
@@ -266,9 +254,6 @@
 We got to the room and the first thing I noticed was that the door wouldn't stay closed. It looked like it had been kicked open and not repaired .  We did finally get the deadbolt to latch along with the other latch. The furniture was cheap and had water spots and was warped. The upholstery on the chair was dirty. There were three flat, flimsy pillows on the bed. I noticed spots on the pillow cases. They were all stained. There was a large ink stain on the sheet. The towels were supposed to be white. I guess they don't know that things aren't good forever, and have not discovered bleach. I wouldn't use the wash cloths in my kitchen, much less...Just awful!! We made a reservation through a website before we got there and they didn't know anything about it. There were five men and one woman - all Indian with limited English skills - at the front desk. They were all confused and saying different things. I got the idea none of them knew what they were doing. But, we did finally convince them to give us a room. We had reserved a room with two double beds, only because it was less than the room with one king bed. They gave us a room with one king bed and said it would be cheaper. By that time, we didn't really care. It was nearly midnight. We got to the room and the first thing I noticed was that the door wouldn't stay closed. It looked like it had been kicked open and not repaired .  We did finally get the deadbolt to latch along with the other latch. The furniture was cheap and had water spots and was warped. The upholstery on the chair was dirty. There were three flat, flimsy pillows on the bed. I noticed spots on the pillow cases. They were all stained. There was a large ink stain on the sheet. The towels were supposed to be white. I guess they don't know that things aren't good forever, and have not discovered bleach. I wouldn't use the wash cloths in my kitchen, much less in the bathroom. I put one towel on the floor of the bathroom as a mat mad and dried off with the bathmat because it looked the cleanest. There were places where the wall was damaged and poorly repaired. The door punched a hole in the wall. There was mold around the tub. I saw a roach the second day. Several of the lights didn't work. We have yet to know how many charges will be on the credit card, or how much it will be, because they said the website hadn't paid them and made my boyfriend return to the office after we had gotten settled twice. He went the next day to talk to the owner, whom he said was clueless too. Don't stay here. I thought that as a part of the Wyndham chain, it would be up to some sort of standards, but clearly it wasn't.More</t>
   </si>
   <si>
-    <t>Aristole</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r330409564-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -290,9 +275,6 @@
     <t>Hey, if I can find a good bed and it is clean and comfortable, I try it. I paid two nights and the manger very courteous refunded the one night. I do not like going in side for a room. Outside where the luggage and I can get to my car.The price is right for what you get.More</t>
   </si>
   <si>
-    <t>mariew31</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r314577137-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -314,9 +296,6 @@
     <t>Not a an acceptable room for a female traveling solo. I was definitely not comfortable sitting my bags on the floor do to the dirt and smell. I was so tired as I was driving from Indiana to San Antonio and desperate to sleep otherwise I would have never been willing to accept the room.More</t>
   </si>
   <si>
-    <t>956donaldg</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r300907964-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -335,9 +314,6 @@
     <t>More</t>
   </si>
   <si>
-    <t>631donalds</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r291972688-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -359,9 +335,6 @@
     <t>half lights didn't work.....had dead flies in bathroom they never did sweep up,changed sheets every other day...marked sheet so I know,no trash bag liners,half the time no coffee for "continental" breakfast...asked for extra pillows on check in counter person said he had to check laundry?  never did get them.overall was cheap place to stay was able to get smoking room...this trip was due to family illness so we didn't stay in room muchMore</t>
   </si>
   <si>
-    <t>374jeffreyj</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r287441252-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -374,9 +347,6 @@
     <t>June 2015</t>
   </si>
   <si>
-    <t>379alisac</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r284527996-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -386,7 +356,82 @@
     <t>06/30/2015</t>
   </si>
   <si>
-    <t>Michelle F</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r283723721-Knights_Inn_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>283723721</t>
+  </si>
+  <si>
+    <t>06/28/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r281706570-Knights_Inn_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>281706570</t>
+  </si>
+  <si>
+    <t>06/20/2015</t>
+  </si>
+  <si>
+    <t>very good for the price</t>
+  </si>
+  <si>
+    <t>We went to this hotel while we were traveling through at the end of May. It was only $62 so I was kind of suspicious and I inspected the room very well before I decided to take it and everything was perfectly clean. Yes, it is old, the furniture is old but everything was very clean. We enjoyed great wifi since I was able to Skype my parents in Canada and it worked really well. We had a good night's sleep. The breakfast was a bit limited as in other Days Inn but it was Ok for me since I don't eat much in the morning anyway. It is a all-you-can-eat continental breakfast but you don't have much choice.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>We went to this hotel while we were traveling through at the end of May. It was only $62 so I was kind of suspicious and I inspected the room very well before I decided to take it and everything was perfectly clean. Yes, it is old, the furniture is old but everything was very clean. We enjoyed great wifi since I was able to Skype my parents in Canada and it worked really well. We had a good night's sleep. The breakfast was a bit limited as in other Days Inn but it was Ok for me since I don't eat much in the morning anyway. It is a all-you-can-eat continental breakfast but you don't have much choice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r281571800-Knights_Inn_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>281571800</t>
+  </si>
+  <si>
+    <t>Wow</t>
+  </si>
+  <si>
+    <t>I stayed here about 3 weeks and could not take it any longer. Persistent cockroaches showed themselves on several occasions, I killed more than I took pictures of, these were in the last days. Also, they changed the carpet in my room, with the Do Not Disturb sign on my door, no notification and while I was at work. This involved moving all of my things out of my room, unattended firearms, unplugged fridge, ALL OF IT! The manager finally asked me about it over a week later the day before I couldn't handle this place anymore. He lives on site and even heard him talking and pointing with his family members towards me while I was outside. Oh insecticide smell continues, but didn't keep the bugs away.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here about 3 weeks and could not take it any longer. Persistent cockroaches showed themselves on several occasions, I killed more than I took pictures of, these were in the last days. Also, they changed the carpet in my room, with the Do Not Disturb sign on my door, no notification and while I was at work. This involved moving all of my things out of my room, unattended firearms, unplugged fridge, ALL OF IT! The manager finally asked me about it over a week later the day before I couldn't handle this place anymore. He lives on site and even heard him talking and pointing with his family members towards me while I was outside. Oh insecticide smell continues, but didn't keep the bugs away.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r258139122-Knights_Inn_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>258139122</t>
+  </si>
+  <si>
+    <t>03/06/2015</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r256379017-Knights_Inn_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>256379017</t>
+  </si>
+  <si>
+    <t>02/25/2015</t>
+  </si>
+  <si>
+    <t>nasty! bugs and hair!</t>
+  </si>
+  <si>
+    <t>first of all i booked a non smoking room! they gave me a smoking room. i can tell because there was an ashtray in the room along with burnt holes on the furniture and carpet! carpet looked like it has not been washed in decades, very dirty i wore my shoes at all times. and as for the tub there was a BIG bug in there upside down DEAD! and hair around the toilet. it was just disgusting. I asked to speak to the manager in the morning but there was no one in the office i waited 10 minutes at least and then i got in the car which i parked right in front and waited a few more minutes to see if any one showed up to the office. but no one did. so i went ahead and just left. i called a few times until some guy kevin picked up and told him about the room. he said sorry and next time i would get a discount! i would not stay there if the room was free. was not happy with this days inn at all. forgot to mention the tv only had about 10 channels and there is no wifi! they call that place a days inn?MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>first of all i booked a non smoking room! they gave me a smoking room. i can tell because there was an ashtray in the room along with burnt holes on the furniture and carpet! carpet looked like it has not been washed in decades, very dirty i wore my shoes at all times. and as for the tub there was a BIG bug in there upside down DEAD! and hair around the toilet. it was just disgusting. I asked to speak to the manager in the morning but there was no one in the office i waited 10 minutes at least and then i got in the car which i parked right in front and waited a few more minutes to see if any one showed up to the office. but no one did. so i went ahead and just left. i called a few times until some guy kevin picked up and told him about the room. he said sorry and next time i would get a discount! i would not stay there if the room was free. was not happy with this days inn at all. forgot to mention the tv only had about 10 channels and there is no wifi! they call that place a days inn?More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r256248148-Knights_Inn_Greenville-Greenville_Texas.html</t>
@@ -398,12 +443,6 @@
     <t>02/24/2015</t>
   </si>
   <si>
-    <t>February 2015</t>
-  </si>
-  <si>
-    <t>Deborah D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r250938914-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -422,9 +461,6 @@
     <t>January 2015</t>
   </si>
   <si>
-    <t>Terry G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r250085358-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -443,18 +479,12 @@
     <t>I expected more than I got for the price. First, there was a funky smell in the room. I attribute it to the badly stained carpet, which is need of replacement. The room furniture was also well worn. Second, there were 15-20 small dead bugs, possibly baby cockroaches, in the bathroom on the floor. Third, there were several missing light bulbs in the room.  I understand that this I one way to reduce electricity consumption but it seems cheap. Last, the breakfast was sparse; although, there was yogurt which seems to be the first item eliminated in an effort to reduce costs. On a positive note, I slept well probably due to aromatherapy. After supper, I stopped by the local Walmart and purchased lavender-scented Frebreze to combat the funky odor. I sprayed it heavily throughout the room. I would also add that the staff was very helpful and courteous.More</t>
   </si>
   <si>
-    <t>ronkeo2015</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r250076770-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
     <t>250076770</t>
   </si>
   <si>
-    <t>anissaj2015</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r247564012-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -467,9 +497,6 @@
     <t>December 2014</t>
   </si>
   <si>
-    <t>FredAckelbee</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r246619380-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -485,9 +512,6 @@
     <t>We were travelling through Greenville, Texas and stayed at this Days Inn, using Wyndham Reward points.  Usually when we travel using points, we are given "last resort" rooms, but this time was wonderful. Room was "older" but clean and comfortable on ground floor.</t>
   </si>
   <si>
-    <t>davidpW9088SB</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r245696748-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -497,9 +521,6 @@
     <t>12/23/2014</t>
   </si>
   <si>
-    <t>Bob S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r244748061-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -509,9 +530,6 @@
     <t>12/16/2014</t>
   </si>
   <si>
-    <t>A W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r240901275-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -524,9 +542,6 @@
     <t>October 2014</t>
   </si>
   <si>
-    <t>Clifford S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r240439255-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -545,9 +560,6 @@
     <t>November 2014</t>
   </si>
   <si>
-    <t>cavedog1965</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r234866869-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -566,9 +578,6 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
-    <t>Malena M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r233255510-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -578,9 +587,6 @@
     <t>10/08/2014</t>
   </si>
   <si>
-    <t>Jeffrey H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r230475476-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -599,9 +605,6 @@
     <t>September 2014</t>
   </si>
   <si>
-    <t>Mickey C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r229336674-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -611,9 +614,6 @@
     <t>09/16/2014</t>
   </si>
   <si>
-    <t>Ronald P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r222748756-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -626,7 +626,73 @@
     <t>August 2014</t>
   </si>
   <si>
-    <t>Susan R</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r221646979-Knights_Inn_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>221646979</t>
+  </si>
+  <si>
+    <t>08/13/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r220535821-Knights_Inn_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>220535821</t>
+  </si>
+  <si>
+    <t>08/08/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r210978565-Knights_Inn_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>210978565</t>
+  </si>
+  <si>
+    <t>06/18/2014</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r203237975-Knights_Inn_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>203237975</t>
+  </si>
+  <si>
+    <t>04/28/2014</t>
+  </si>
+  <si>
+    <t>Not what it used to be...</t>
+  </si>
+  <si>
+    <t>We have stayed at this hotel for the last 3-4 years every time we drive down to Dallas.  It was usually inexpensive, however on this trip the cost was considerably higher than usual.  The room was dirty.  It was supposedly a non-smoking room but REEKED of cigarette smoke and in our hunt for the missing TV remote we found an empty pack of cigarettes under the TV stand.  Found a blue tooth headset next to the night stand.  They had 1 towel in the bathroom.  The lights above the night stands didn't work and we realized they were unplugged.  We struggled and fought to get behind the bed to get to the plug and they still didn't work.  The shower heads are for very short people.  We had to go back to the front desk to get a TV remote.  The bathroom vent was loose and partially open.  We decided we'll drive the extra hour and pay the double price to spend our first night of our Dallas trips in Dallas and no longer stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>We have stayed at this hotel for the last 3-4 years every time we drive down to Dallas.  It was usually inexpensive, however on this trip the cost was considerably higher than usual.  The room was dirty.  It was supposedly a non-smoking room but REEKED of cigarette smoke and in our hunt for the missing TV remote we found an empty pack of cigarettes under the TV stand.  Found a blue tooth headset next to the night stand.  They had 1 towel in the bathroom.  The lights above the night stands didn't work and we realized they were unplugged.  We struggled and fought to get behind the bed to get to the plug and they still didn't work.  The shower heads are for very short people.  We had to go back to the front desk to get a TV remote.  The bathroom vent was loose and partially open.  We decided we'll drive the extra hour and pay the double price to spend our first night of our Dallas trips in Dallas and no longer stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r200654962-Knights_Inn_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>200654962</t>
+  </si>
+  <si>
+    <t>04/10/2014</t>
+  </si>
+  <si>
+    <t>Needs a lot of updating and repair</t>
+  </si>
+  <si>
+    <t>Just an overnight stay on my way to San Antonio.  Carpet needed replacement, bed comforter had holes, room was not clean and showing signs of deterioration.  There was some work recently done on the shower enclosure ... but otherwise in bad shape.  Lock on door was loose and didn't feel safe at night. Breakfast (continental) consisted of weak coffee, bread for toaster and dry cereal (never did find any milk). Was really glad to be out of there the next morning.  I've found much better facilities in this price range.  Manager at front desk seemed courteous.  About the only positive comment I can think of.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r200393163-Knights_Inn_Greenville-Greenville_Texas.html</t>
@@ -638,12 +704,6 @@
     <t>04/08/2014</t>
   </si>
   <si>
-    <t>March 2014</t>
-  </si>
-  <si>
-    <t>Chase5566</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r200100837-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -662,9 +722,6 @@
     <t>Traveling through the area I stayed the night at this Days Inn because generally Days Inns are decent cheap places to stay if you don't need any frills. This was an okay place to sleep but that's about all. Bed was semi comfortable, but other than that I was not impressed. Bathroom had some updates, but there must have been a leak in the wall because around the floor boards you could see it somewhat was rotted away and there was a huge wet spot on the carpet near the bathroom door. There really wasn't any breakfast (2 types of cereal, some mil, orange juice, honey buns, single slices of bread, single half slices of bagels, and a single apple). The coffee was even empty and we rang the front office bell to ask for more and waited in there 20 minutes while i ate a bowl of cereal, but we never saw a worker at the front desk come around. So really don't count on the "free breakfast". Could be okay of they make a few changes and clean the place up a little, but we won't be staying there on our way back through town.More</t>
   </si>
   <si>
-    <t>Sheri_sheray</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r198020420-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -680,9 +737,6 @@
     <t>Staff were friendly. They offered weekly rate which helped with hotel cost!  Overall it was a great stay for our 6 days. Will definitely go back. Only "issue" was our heater/air conditioner started making a squealing noise. Front desk was called and we were moved to the room next door in less than 15 minutes.</t>
   </si>
   <si>
-    <t>Dennis O</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r192160114-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -695,9 +749,6 @@
     <t>January 2014</t>
   </si>
   <si>
-    <t>Abigail P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r188688430-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -710,9 +761,6 @@
     <t>December 2013</t>
   </si>
   <si>
-    <t>Don T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r187693965-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -722,9 +770,6 @@
     <t>12/15/2013</t>
   </si>
   <si>
-    <t>Ryan H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r186998363-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -734,9 +779,6 @@
     <t>12/07/2013</t>
   </si>
   <si>
-    <t>Bryan F</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r185723338-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -749,9 +791,6 @@
     <t>November 2013</t>
   </si>
   <si>
-    <t>James H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r181188626-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -764,9 +803,6 @@
     <t>October 2013</t>
   </si>
   <si>
-    <t>Melinda F</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r177821809-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -779,9 +815,6 @@
     <t>September 2013</t>
   </si>
   <si>
-    <t>Mama2010</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r176440882-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -798,9 +831,6 @@
   </si>
   <si>
     <t>August 2013</t>
-  </si>
-  <si>
-    <t>Amber B</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r172852743-Knights_Inn_Greenville-Greenville_Texas.html</t>
@@ -834,9 +864,6 @@
   The location is wonderful. It is literally right off of I-30. There is an iHop, Tamolly's, Chili's and Walmart all less than 5 minutes down the road. There is also a very cute little movie...Me and my husband stayed here in mid July  for one night on our trip back from Galveston to Texarkana. The lobby was very nice and clean, and the staff was very friendly.The room was pretty small, much smaller than the Super 8 that we stayed in while in Galveston for about the same price, but for one night that didn't bother us. The bed was comfortable, the room was very clean, the mini fridge and microwave worked fine. The TV worked but there weren't a lot of channels so you would get static on almost every other channel. the shower was clean and hot water worked great. The AC worked great. The only problems I really had were that you could hear EVERYTHING outside the room. You could easily hear a conversation between people outside 3 or 4 rooms down, and you could hear someone talking loudly or slamming car doors all the way across the parking lot. Also, there was a vent in the bathroom that obviously led to the street at the back or side of the building because when you were in there you could hear dogs barking and cars driving by as if you were in the street yourself.  The location is wonderful. It is literally right off of I-30. There is an iHop, Tamolly's, Chili's and Walmart all less than 5 minutes down the road. There is also a very cute little movie theater, Majestic 12, a couple minutes down the road that we went to and we loved it because we only have a large theater in our hometown.  Overall it was very nice for a one night stay, but not sure if I would have stayed for longer than that.More</t>
   </si>
   <si>
-    <t>Doug K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r167504985-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -846,9 +873,6 @@
     <t>07/14/2013</t>
   </si>
   <si>
-    <t>Nicole S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r165496986-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -867,9 +891,6 @@
     <t>June 2013</t>
   </si>
   <si>
-    <t>Peace A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r165146957-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -879,7 +900,67 @@
     <t>06/24/2013</t>
   </si>
   <si>
-    <t>Mildred B</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r162354873-Knights_Inn_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>162354873</t>
+  </si>
+  <si>
+    <t>05/29/2013</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r160181397-Knights_Inn_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>160181397</t>
+  </si>
+  <si>
+    <t>05/09/2013</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r160130318-Knights_Inn_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>160130318</t>
+  </si>
+  <si>
+    <t>05/08/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r155550086-Knights_Inn_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>155550086</t>
+  </si>
+  <si>
+    <t>03/24/2013</t>
+  </si>
+  <si>
+    <t>Just too threadbare to justify the rate</t>
+  </si>
+  <si>
+    <t>This is usually the rate I like to pick when traveling for a quick overnight, but the room was just too shabby and the carpet too frayed to justify paying over $60 a night. Wifi worked fine for me though.</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r152353398-Knights_Inn_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>152353398</t>
+  </si>
+  <si>
+    <t>02/17/2013</t>
+  </si>
+  <si>
+    <t>February 2013</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r152180368-Knights_Inn_Greenville-Greenville_Texas.html</t>
@@ -891,12 +972,6 @@
     <t>02/15/2013</t>
   </si>
   <si>
-    <t>February 2013</t>
-  </si>
-  <si>
-    <t>CLEDITH W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r148297363-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -909,9 +984,6 @@
     <t>December 2012</t>
   </si>
   <si>
-    <t>airman74</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r147035890-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -927,9 +999,6 @@
     <t>I did stay at this hotel for one night for business. Price was reasonable, room was clean but wifi did not work at all. The area is quiet noisy.I believe this hotel is a good option for having a good shower and a good night sleep. Friendly staff.</t>
   </si>
   <si>
-    <t>asherdasher63</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r146839001-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -951,9 +1020,6 @@
     <t>We stayed here for around a month while my boyfriend and their crew worked in the next town over. The breakfast in the morning was juice and honey buns, not really my thing so I usually skipped breakfast. The rooms were actually pretty nice they looked newly redone to me. But the beds were small for two people so you camped together although they were comfortable. The a/c worked great which was a plus. The toilet had to be flushed multiple times before it would go down. There were two tornados that went through the area while we there and luckily we had friends on the first floor. Other wise we would have been stuck on the second floor because they never told us if they had a shelter or not just came and told us that we were under a tornado warning. The pool was opened up about a week before we left so we were able to use it. It was a little cold since it was just filled but it was deep at the end so it was fun on hot days. I liked the location it was in because you weren't in the middle of town but just a short drive down the highway to get to everything. I would probably stay here again given the other choices that were down the road some not so nice others way too nice.More</t>
   </si>
   <si>
-    <t>BILL B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r143569434-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -966,9 +1032,6 @@
     <t>October 2012</t>
   </si>
   <si>
-    <t>RACHEL H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r142150537-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -987,9 +1050,6 @@
     <t>Our remote control didn't work at all, the room smelled funny (like old lady almost), there was an ink stain on our sheets, and when we looked under the bed to see if we were leaving anything, we saw a bunch of trash, cigarette buds (in a "smoke-free" room). Our drain plug in the tub didn't work either. We asked the front desk to be careful when cleaning our room since we had brought our cat with us and we didn't want her to run out of the room while they were cleaning. We ended up being in the room and housekeeping didn't even knock but they barged right into the room. We thought my cat was making noise and we were in the bathroom. My husband walked out of the room to let her know we were there and she wouldn't leave. I don't think she understood us. Anyway that was all of the bad things. The bed was really comfortable and we were given plenty of pillows. More</t>
   </si>
   <si>
-    <t>PaulaJane_12</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r136429179-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -1011,9 +1071,6 @@
     <t>We went on a family vacation and had book two rooms 3 months in advance. We stayed 5 days and never had housekeeping come and clean never had clean towels and when we called the office to request towels we were told that the lady was new and couldn't get us towels and that we would have to wait for housekeeping. On Sunday we went to church with some friends we were gone 5 hours and housekeeping never came we had to use our beach towels to use to dry with after a shower. We live in Oklahoma after we drove 6 hours I checked my bank account and noticed I was charged 50 dollars from Days Inn. When I called and asked why I was told because we stole a blanket and pillow from the room. I told the guy who answered the phone that we never stole anything and he said he checked the rooms himself. I was very upset with the staff who was all rude when we asked for housekeeping or for clean towels. I wouldn't recommend this hotel to any of my friends who like to travel.More</t>
   </si>
   <si>
-    <t>TDBaxter</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r132882115-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -1032,9 +1089,6 @@
     <t>June 2012</t>
   </si>
   <si>
-    <t>Liz R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r132620313-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -1050,9 +1104,6 @@
     <t>Very old and run down, stuff even on the ceilings, but nice management.</t>
   </si>
   <si>
-    <t>EBovary</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r131782782-Knights_Inn_Greenville-Greenville_Texas.html</t>
   </si>
   <si>
@@ -1069,6 +1120,162 @@
   </si>
   <si>
     <t>Stayed just one night while in town for a wedding. We were told by other wedding guests that we chose the right place, as the Quality Inn in Greenville is apparently disgusting. We did have to wait about half an hour for our rooms, but we showed up at noon and check in time isn't until later in the day. This Days Inn was clean and well kept-up. My husband thought the sheets were scratchy, but I thought they were fine. The shower is nicer than the average motel shower, as there's a granite overlay on the shower walls. The swimming pool is right in the middle of the parking lot with just a metal gate around it, so that's not very appealing -- who wants to swim with a bunch of parked cars around you? But we got a good night's sleep and felt refreshed in the morning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r131046809-Knights_Inn_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>131046809</t>
+  </si>
+  <si>
+    <t>05/31/2012</t>
+  </si>
+  <si>
+    <t>ok if you must</t>
+  </si>
+  <si>
+    <t>was somewhat clean, not real pricey, pet friendly and pet fee only $10.00, professional staff</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r126327094-Knights_Inn_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>126327094</t>
+  </si>
+  <si>
+    <t>03/19/2012</t>
+  </si>
+  <si>
+    <t>The lady at the front desk argued with me. Then hung up in my face!!!!!!!!</t>
+  </si>
+  <si>
+    <t>I made a reservation online a week prior to stay March 11th. An hour before my arrival, I got lost so I called to get directions. The man was unprofessional on the phone answering "Hello" instead of "Days Inn" and when I got to the hotel they told me they wouldnt have a room until 2 because they had to clean it. I was very tired as this was still 9am and I had been driving all night. I went and checked into another place. I called to cancel my reservation and the lady became argumentive with me! She said I had to talk to the manager which was fine, but when I asked for the manager's name she refused to give it to me. She only said "I told you the manager wasn't in right now!" She also argued "I told you we would have a room ready at eleven!" I replied "No, you said two." "I been driving all night and I am very sleepy." She then hung up in my face!!!! The staff at the front desk of Days Inn, Greenville are very rude!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>I made a reservation online a week prior to stay March 11th. An hour before my arrival, I got lost so I called to get directions. The man was unprofessional on the phone answering "Hello" instead of "Days Inn" and when I got to the hotel they told me they wouldnt have a room until 2 because they had to clean it. I was very tired as this was still 9am and I had been driving all night. I went and checked into another place. I called to cancel my reservation and the lady became argumentive with me! She said I had to talk to the manager which was fine, but when I asked for the manager's name she refused to give it to me. She only said "I told you the manager wasn't in right now!" She also argued "I told you we would have a room ready at eleven!" I replied "No, you said two." "I been driving all night and I am very sleepy." She then hung up in my face!!!! The staff at the front desk of Days Inn, Greenville are very rude!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r120039386-Knights_Inn_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>120039386</t>
+  </si>
+  <si>
+    <t>11/01/2011</t>
+  </si>
+  <si>
+    <t>Not one of the newer Days Inns</t>
+  </si>
+  <si>
+    <t>Got the room online.  Very old property. Not the best Days Inn I've ever stayed in. Very small parking lot and lots of noise.  Lots of workers and even semis.  Right behind a Mexican restaurant that always had cars with loud stereos.  Didn't sleep well and left as soon as I awoke.</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r119678857-Knights_Inn_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>119678857</t>
+  </si>
+  <si>
+    <t>10/24/2011</t>
+  </si>
+  <si>
+    <t>Do not accidently leave anything at this Motel</t>
+  </si>
+  <si>
+    <t>Me and my daughter stayed at this Days Inn here in Greenville on 10/19 and 10/20/2011.  The room was okay and we enjoyed it.  We headed out Friday morning in a rush.  My daughter thought about forgetting something as the day went on.  This item was big so it could not be missed.  She went back to get it and the manager or whoever said they did not find anything.  I could not believe it.  As they were getting ready to clean just as we were leaving at 8:15 am so I know it was found. I could understand if we had forgotten it for a whole week or so but just a matter of hours.  The manager was very rude to my daughter when she went back and of course she was very upset.  Like I told her count it a lost and believe me nothing good will come out of it for Days Inn treating her this away.  Also if he didn't know anything about it I would not want anyone that take things working for me.  Wonder what they are taking of his!!!!!!!! So be careful and try not to leave anything there you will not get it back.MoreShow less</t>
+  </si>
+  <si>
+    <t>Me and my daughter stayed at this Days Inn here in Greenville on 10/19 and 10/20/2011.  The room was okay and we enjoyed it.  We headed out Friday morning in a rush.  My daughter thought about forgetting something as the day went on.  This item was big so it could not be missed.  She went back to get it and the manager or whoever said they did not find anything.  I could not believe it.  As they were getting ready to clean just as we were leaving at 8:15 am so I know it was found. I could understand if we had forgotten it for a whole week or so but just a matter of hours.  The manager was very rude to my daughter when she went back and of course she was very upset.  Like I told her count it a lost and believe me nothing good will come out of it for Days Inn treating her this away.  Also if he didn't know anything about it I would not want anyone that take things working for me.  Wonder what they are taking of his!!!!!!!! So be careful and try not to leave anything there you will not get it back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r117636816-Knights_Inn_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>117636816</t>
+  </si>
+  <si>
+    <t>09/03/2011</t>
+  </si>
+  <si>
+    <t>Unpleasant and not recommended</t>
+  </si>
+  <si>
+    <t>First night, requested upstairs room, but clerk said there were no cool rooms upstairs and he put me in a room downstairs, then next morning I requested to be moved to an upstairs room.  Refrigerator froze the drink I had in it.  When I was moved upstairs, room did not have a security lock, it had been broke off.  Clerk moved me again to a third room.  This room had bugs (crickets and roaches), phone did not work, room had two televisions, but the remote for either t.v. did not work correctly.  Sheets were not changed on a daily basis.  When I first got to the room, there was a used dirty washcloth still in the shower.  Had to request toilet paper because the maid did not leave any when she cleaned the room.  Website for the hotel mentions there was renovations, but I did see much as far as renovations.  Maid must not of vacuumed room because the same dirty spots were there everyday.  On the morning I was getting ready to return home, I was going to take a shower, but there was no running water.  Clerk said it was due to construction in the area and didn't know for sure when the water would be back on.  I had to check out of hotel early and get another room at a different hotel.  There are no fire sprinklers in the rooms.  I'm not sure what the laws...First night, requested upstairs room, but clerk said there were no cool rooms upstairs and he put me in a room downstairs, then next morning I requested to be moved to an upstairs room.  Refrigerator froze the drink I had in it.  When I was moved upstairs, room did not have a security lock, it had been broke off.  Clerk moved me again to a third room.  This room had bugs (crickets and roaches), phone did not work, room had two televisions, but the remote for either t.v. did not work correctly.  Sheets were not changed on a daily basis.  When I first got to the room, there was a used dirty washcloth still in the shower.  Had to request toilet paper because the maid did not leave any when she cleaned the room.  Website for the hotel mentions there was renovations, but I did see much as far as renovations.  Maid must not of vacuumed room because the same dirty spots were there everyday.  On the morning I was getting ready to return home, I was going to take a shower, but there was no running water.  Clerk said it was due to construction in the area and didn't know for sure when the water would be back on.  I had to check out of hotel early and get another room at a different hotel.  There are no fire sprinklers in the rooms.  I'm not sure what the laws are for fire sprinklers, but I didn't feel safe.  The people running the hotel do not speak English real well.  This was definitely the worse experience I've had with a hotel reservation.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>First night, requested upstairs room, but clerk said there were no cool rooms upstairs and he put me in a room downstairs, then next morning I requested to be moved to an upstairs room.  Refrigerator froze the drink I had in it.  When I was moved upstairs, room did not have a security lock, it had been broke off.  Clerk moved me again to a third room.  This room had bugs (crickets and roaches), phone did not work, room had two televisions, but the remote for either t.v. did not work correctly.  Sheets were not changed on a daily basis.  When I first got to the room, there was a used dirty washcloth still in the shower.  Had to request toilet paper because the maid did not leave any when she cleaned the room.  Website for the hotel mentions there was renovations, but I did see much as far as renovations.  Maid must not of vacuumed room because the same dirty spots were there everyday.  On the morning I was getting ready to return home, I was going to take a shower, but there was no running water.  Clerk said it was due to construction in the area and didn't know for sure when the water would be back on.  I had to check out of hotel early and get another room at a different hotel.  There are no fire sprinklers in the rooms.  I'm not sure what the laws...First night, requested upstairs room, but clerk said there were no cool rooms upstairs and he put me in a room downstairs, then next morning I requested to be moved to an upstairs room.  Refrigerator froze the drink I had in it.  When I was moved upstairs, room did not have a security lock, it had been broke off.  Clerk moved me again to a third room.  This room had bugs (crickets and roaches), phone did not work, room had two televisions, but the remote for either t.v. did not work correctly.  Sheets were not changed on a daily basis.  When I first got to the room, there was a used dirty washcloth still in the shower.  Had to request toilet paper because the maid did not leave any when she cleaned the room.  Website for the hotel mentions there was renovations, but I did see much as far as renovations.  Maid must not of vacuumed room because the same dirty spots were there everyday.  On the morning I was getting ready to return home, I was going to take a shower, but there was no running water.  Clerk said it was due to construction in the area and didn't know for sure when the water would be back on.  I had to check out of hotel early and get another room at a different hotel.  There are no fire sprinklers in the rooms.  I'm not sure what the laws are for fire sprinklers, but I didn't feel safe.  The people running the hotel do not speak English real well.  This was definitely the worse experience I've had with a hotel reservation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r113700257-Knights_Inn_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>113700257</t>
+  </si>
+  <si>
+    <t>06/15/2011</t>
+  </si>
+  <si>
+    <t>BUGS, MOLD on ceiling from previous leak</t>
+  </si>
+  <si>
+    <t>We were in town due to attending a 3-day class.  We booked this hotel online because it was the only one available nearest the classroom; however, after fighting with bugs and the smell of mold from a previous ceiling leak in the bathroom we couldn't get out there fast enough !!!  We opted to stay 30 miles away and put up with the drive instead a putting up with the BUGS.   PLEASE RECONSIDER IF YOU ARE LOOKING TO STAY HERE.</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r94886200-Knights_Inn_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>94886200</t>
+  </si>
+  <si>
+    <t>01/29/2011</t>
+  </si>
+  <si>
+    <t>Why Pay More?</t>
+  </si>
+  <si>
+    <t>I hesitated to book this place after some of the reviews I see, including "Bugs".  I'm glad I went ahead and went.  For $28+tax I get a comfortable King room with a large TV, free wireless internet, two tables with chairs, a fridge, microwave and coffee pot.  The room is great with crown molding and marble-like walls around the bath tub.  The AC unit looks brand new and the water temperature was great.  A washer and dryer are located down the hall by the ice machine.   Cereal and waffles along with the muffins and breads for breakfast are more than I eat at home.  No bugs anywhere and the service at the front desk is as expected.  Don't support the overpriced places when all you need is a place to sleep.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2011</t>
+  </si>
+  <si>
+    <t>I hesitated to book this place after some of the reviews I see, including "Bugs".  I'm glad I went ahead and went.  For $28+tax I get a comfortable King room with a large TV, free wireless internet, two tables with chairs, a fridge, microwave and coffee pot.  The room is great with crown molding and marble-like walls around the bath tub.  The AC unit looks brand new and the water temperature was great.  A washer and dryer are located down the hall by the ice machine.   Cereal and waffles along with the muffins and breads for breakfast are more than I eat at home.  No bugs anywhere and the service at the front desk is as expected.  Don't support the overpriced places when all you need is a place to sleep.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55931-d1307636-r75957806-Knights_Inn_Greenville-Greenville_Texas.html</t>
+  </si>
+  <si>
+    <t>75957806</t>
+  </si>
+  <si>
+    <t>08/19/2010</t>
+  </si>
+  <si>
+    <t>Bugs</t>
+  </si>
+  <si>
+    <t>I just needed a place to sleep for the night while travelling on business.  The hotel website posted a reasonable price for a national chain but I was a bit concerned that there were no reviews on TripAdvisor or Travelocity.  There were very few rooms occupied.  The first room I got had a pile of dirty towels in the bathroom, I didn't check the room further before returning to the desk for another key.  I killed a large spider in front of the door to the second room.  It was late so I stayed.  The room didn't smell very good but the sheets and towels were clean.  When I turned down the comforter and blanket, many small bugs came off the blanket.  The blanket had not been cleaned recently.  I just tossed the blanket and comfortor on the floor and used the sheets only since I didn't see any more insects.  When I woke up in the morning one of the largest roaches I have ever seen (over 2") was climbing the wall.  I killed it with my shoe.  After getting out of the shower I noticed another large roach in the bathroom light fixture.  The bathroom counter and plumbing appeared quite new so the motel had received some attention lately but the carpet was bad.  They need to pay a lot more attention to upkeep.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>I just needed a place to sleep for the night while travelling on business.  The hotel website posted a reasonable price for a national chain but I was a bit concerned that there were no reviews on TripAdvisor or Travelocity.  There were very few rooms occupied.  The first room I got had a pile of dirty towels in the bathroom, I didn't check the room further before returning to the desk for another key.  I killed a large spider in front of the door to the second room.  It was late so I stayed.  The room didn't smell very good but the sheets and towels were clean.  When I turned down the comforter and blanket, many small bugs came off the blanket.  The blanket had not been cleaned recently.  I just tossed the blanket and comfortor on the floor and used the sheets only since I didn't see any more insects.  When I woke up in the morning one of the largest roaches I have ever seen (over 2") was climbing the wall.  I killed it with my shoe.  After getting out of the shower I noticed another large roach in the bathroom light fixture.  The bathroom counter and plumbing appeared quite new so the motel had received some attention lately but the carpet was bad.  They need to pay a lot more attention to upkeep.More</t>
   </si>
 </sst>
 </file>
@@ -1573,47 +1780,43 @@
       <c r="A2" t="n">
         <v>7998</v>
       </c>
-      <c r="B2" t="n">
-        <v>118065</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1625,60 +1828,56 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
         <v>54</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>55</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>7998</v>
       </c>
-      <c r="B3" t="n">
-        <v>162754</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
         <v>57</v>
       </c>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="J3" t="s">
         <v>58</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>59</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>60</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
         <v>61</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>62</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>63</v>
-      </c>
-      <c r="O3" t="s">
-        <v>64</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
@@ -1694,60 +1893,56 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
+        <v>53</v>
+      </c>
+      <c r="X3" t="s">
         <v>54</v>
       </c>
-      <c r="X3" t="s">
-        <v>55</v>
-      </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>7998</v>
       </c>
-      <c r="B4" t="n">
-        <v>162755</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
         <v>66</v>
       </c>
-      <c r="D4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="K4" t="s">
         <v>67</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>68</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
         <v>69</v>
       </c>
-      <c r="K4" t="s">
-        <v>70</v>
-      </c>
-      <c r="L4" t="s">
-        <v>71</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>72</v>
-      </c>
       <c r="O4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1759,60 +1954,56 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
+        <v>53</v>
+      </c>
+      <c r="X4" t="s">
         <v>54</v>
       </c>
-      <c r="X4" t="s">
-        <v>55</v>
-      </c>
       <c r="Y4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>7998</v>
       </c>
-      <c r="B5" t="n">
-        <v>92271</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
         <v>74</v>
       </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="L5" t="s">
         <v>75</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>69</v>
+      </c>
+      <c r="O5" t="s">
         <v>76</v>
-      </c>
-      <c r="J5" t="s">
-        <v>77</v>
-      </c>
-      <c r="K5" t="s">
-        <v>78</v>
-      </c>
-      <c r="L5" t="s">
-        <v>79</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
-        <v>72</v>
-      </c>
-      <c r="O5" t="s">
-        <v>80</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -1830,60 +2021,56 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
+        <v>53</v>
+      </c>
+      <c r="X5" t="s">
         <v>54</v>
       </c>
-      <c r="X5" t="s">
-        <v>55</v>
-      </c>
       <c r="Y5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>7998</v>
       </c>
-      <c r="B6" t="n">
-        <v>162756</v>
-      </c>
-      <c r="C6" t="s">
-        <v>82</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
         <v>83</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>84</v>
-      </c>
-      <c r="J6" t="s">
-        <v>85</v>
-      </c>
-      <c r="K6" t="s">
-        <v>86</v>
-      </c>
-      <c r="L6" t="s">
-        <v>87</v>
-      </c>
-      <c r="M6" t="n">
-        <v>3</v>
-      </c>
-      <c r="N6" t="s">
-        <v>88</v>
-      </c>
       <c r="O6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
@@ -1901,60 +2088,56 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
+        <v>53</v>
+      </c>
+      <c r="X6" t="s">
         <v>54</v>
       </c>
-      <c r="X6" t="s">
-        <v>55</v>
-      </c>
       <c r="Y6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>7998</v>
       </c>
-      <c r="B7" t="n">
-        <v>162757</v>
-      </c>
-      <c r="C7" t="s">
-        <v>90</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="J7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="O7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="P7" t="n">
         <v>3</v>
@@ -1976,58 +2159,54 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
+        <v>53</v>
+      </c>
+      <c r="X7" t="s">
         <v>54</v>
       </c>
-      <c r="X7" t="s">
-        <v>55</v>
-      </c>
       <c r="Y7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>7998</v>
       </c>
-      <c r="B8" t="n">
-        <v>162758</v>
-      </c>
-      <c r="C8" t="s">
-        <v>98</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="J8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="O8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P8" t="n">
         <v>4</v>
@@ -2049,60 +2228,56 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
+        <v>53</v>
+      </c>
+      <c r="X8" t="s">
         <v>54</v>
       </c>
-      <c r="X8" t="s">
-        <v>55</v>
-      </c>
       <c r="Y8" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>7998</v>
       </c>
-      <c r="B9" t="n">
-        <v>162759</v>
-      </c>
-      <c r="C9" t="s">
-        <v>105</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="J9" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="K9" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="L9" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="O9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P9" t="n">
         <v>3</v>
@@ -2124,58 +2299,54 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
+        <v>53</v>
+      </c>
+      <c r="X9" t="s">
         <v>54</v>
       </c>
-      <c r="X9" t="s">
-        <v>55</v>
-      </c>
       <c r="Y9" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>7998</v>
       </c>
-      <c r="B10" t="n">
-        <v>162760</v>
-      </c>
-      <c r="C10" t="s">
-        <v>113</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="J10" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="O10" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="P10" t="n">
         <v>1</v>
@@ -2195,45 +2366,41 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
+        <v>53</v>
+      </c>
+      <c r="X10" t="s">
         <v>54</v>
       </c>
-      <c r="X10" t="s">
-        <v>55</v>
-      </c>
       <c r="Y10" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>7998</v>
       </c>
-      <c r="B11" t="n">
-        <v>162761</v>
-      </c>
-      <c r="C11" t="s">
-        <v>118</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="J11" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -2241,10 +2408,10 @@
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="O11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="P11" t="n">
         <v>3</v>
@@ -2265,131 +2432,130 @@
       <c r="V11" t="n">
         <v>0</v>
       </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>7998</v>
       </c>
-      <c r="B12" t="n">
-        <v>18293</v>
-      </c>
-      <c r="C12" t="s">
-        <v>122</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="J12" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="M12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="O12" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="P12" t="n">
         <v>3</v>
       </c>
       <c r="Q12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S12" t="n">
         <v>3</v>
       </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
+      <c r="W12" t="s">
+        <v>53</v>
+      </c>
+      <c r="X12" t="s">
+        <v>54</v>
+      </c>
       <c r="Y12" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>7998</v>
       </c>
-      <c r="B13" t="n">
-        <v>36156</v>
-      </c>
-      <c r="C13" t="s">
-        <v>127</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="J13" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="K13" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="L13" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="O13" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2397,106 +2563,92 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>7998</v>
       </c>
-      <c r="B14" t="n">
-        <v>7403</v>
-      </c>
-      <c r="C14" t="s">
-        <v>134</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="J14" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="K14" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="L14" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
-      <c r="R14" t="n">
-        <v>3</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1</v>
-      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>3</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>7998</v>
       </c>
-      <c r="B15" t="n">
-        <v>162762</v>
-      </c>
-      <c r="C15" t="s">
-        <v>141</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="J15" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="K15" t="s"/>
       <c r="L15" t="s"/>
@@ -2504,22 +2656,22 @@
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="O15" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="P15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q15" t="n">
         <v>4</v>
       </c>
       <c r="R15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
@@ -2528,124 +2680,128 @@
       <c r="V15" t="n">
         <v>0</v>
       </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>7998</v>
       </c>
-      <c r="B16" t="n">
-        <v>162763</v>
-      </c>
-      <c r="C16" t="s">
-        <v>144</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="J16" t="s">
-        <v>147</v>
-      </c>
-      <c r="K16" t="s"/>
-      <c r="L16" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="K16" t="s">
+        <v>134</v>
+      </c>
+      <c r="L16" t="s">
+        <v>135</v>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="O16" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q16" t="s"/>
       <c r="R16" t="n">
-        <v>3</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>7998</v>
       </c>
-      <c r="B17" t="n">
-        <v>162764</v>
-      </c>
-      <c r="C17" t="s">
-        <v>149</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="J17" t="s">
-        <v>152</v>
-      </c>
-      <c r="K17" t="s">
-        <v>153</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="K17" t="s"/>
       <c r="L17" t="s">
-        <v>154</v>
+        <v>95</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="O17" t="s">
-        <v>80</v>
-      </c>
-      <c r="P17" t="s"/>
-      <c r="Q17" t="s"/>
-      <c r="R17" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
       <c r="S17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2653,163 +2809,159 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>154</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>7998</v>
       </c>
-      <c r="B18" t="n">
-        <v>162765</v>
-      </c>
-      <c r="C18" t="s">
-        <v>155</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="J18" t="s">
-        <v>158</v>
-      </c>
-      <c r="K18" t="s"/>
-      <c r="L18" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="K18" t="s">
+        <v>144</v>
+      </c>
+      <c r="L18" t="s">
+        <v>145</v>
+      </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P18" t="n">
         <v>1</v>
       </c>
-      <c r="Q18" t="n">
-        <v>1</v>
-      </c>
-      <c r="R18" t="n">
-        <v>3</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>7998</v>
       </c>
-      <c r="B19" t="n">
-        <v>5778</v>
-      </c>
-      <c r="C19" t="s">
-        <v>159</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="J19" t="s">
-        <v>162</v>
-      </c>
-      <c r="K19" t="s"/>
-      <c r="L19" t="s"/>
+        <v>149</v>
+      </c>
+      <c r="K19" t="s">
+        <v>150</v>
+      </c>
+      <c r="L19" t="s">
+        <v>151</v>
+      </c>
       <c r="M19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O19" t="s">
-        <v>96</v>
-      </c>
-      <c r="P19" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>4</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
       <c r="R19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>7998</v>
       </c>
-      <c r="B20" t="n">
-        <v>91255</v>
-      </c>
-      <c r="C20" t="s">
-        <v>163</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="J20" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="K20" t="s"/>
       <c r="L20" t="s"/>
@@ -2817,88 +2969,83 @@
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="O20" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="P20" t="n">
         <v>3</v>
       </c>
       <c r="Q20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>7998</v>
       </c>
-      <c r="B21" t="n">
-        <v>24824</v>
-      </c>
-      <c r="C21" t="s">
-        <v>168</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="J21" t="s">
-        <v>171</v>
-      </c>
-      <c r="K21" t="s">
-        <v>172</v>
-      </c>
-      <c r="L21" t="s">
-        <v>173</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="K21" t="s"/>
+      <c r="L21" t="s"/>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="P21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
@@ -2909,259 +3056,240 @@
       </c>
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
-      <c r="Y21" t="s">
-        <v>173</v>
-      </c>
+      <c r="Y21" t="s"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>7998</v>
       </c>
-      <c r="B22" t="n">
-        <v>162766</v>
-      </c>
-      <c r="C22" t="s">
-        <v>175</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="J22" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="K22" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="L22" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="O22" t="s">
-        <v>181</v>
+        <v>76</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
-      <c r="S22" t="s"/>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
       <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>7998</v>
       </c>
-      <c r="B23" t="n">
-        <v>162767</v>
-      </c>
-      <c r="C23" t="s">
-        <v>182</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="J23" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="K23" t="s"/>
       <c r="L23" t="s"/>
       <c r="M23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="O23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R23" t="n">
         <v>3</v>
       </c>
       <c r="S23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>7998</v>
       </c>
-      <c r="B24" t="n">
-        <v>11988</v>
-      </c>
-      <c r="C24" t="s">
-        <v>186</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="J24" t="s">
-        <v>189</v>
-      </c>
-      <c r="K24" t="s">
-        <v>190</v>
-      </c>
-      <c r="L24" t="s">
-        <v>191</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="K24" t="s"/>
+      <c r="L24" t="s"/>
       <c r="M24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="O24" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="P24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
-      <c r="Y24" t="s">
-        <v>191</v>
-      </c>
+      <c r="Y24" t="s"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>7998</v>
       </c>
-      <c r="B25" t="n">
-        <v>162768</v>
-      </c>
-      <c r="C25" t="s">
-        <v>193</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="J25" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="K25" t="s"/>
-      <c r="L25" t="s">
-        <v>102</v>
-      </c>
+      <c r="L25" t="s"/>
       <c r="M25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="O25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q25" t="n">
         <v>2</v>
       </c>
       <c r="R25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
@@ -3172,63 +3300,61 @@
       </c>
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
-      <c r="Y25" t="s">
-        <v>104</v>
-      </c>
+      <c r="Y25" t="s"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>7998</v>
       </c>
-      <c r="B26" t="n">
-        <v>50184</v>
-      </c>
-      <c r="C26" t="s">
-        <v>197</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="J26" t="s">
-        <v>200</v>
-      </c>
-      <c r="K26" t="s"/>
-      <c r="L26" t="s"/>
+        <v>176</v>
+      </c>
+      <c r="K26" t="s">
+        <v>177</v>
+      </c>
+      <c r="L26" t="s">
+        <v>178</v>
+      </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="O26" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="P26" t="n">
         <v>3</v>
       </c>
       <c r="Q26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
@@ -3237,115 +3363,109 @@
       <c r="V26" t="n">
         <v>0</v>
       </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>7998</v>
       </c>
-      <c r="B27" t="n">
-        <v>3802</v>
-      </c>
-      <c r="C27" t="s">
-        <v>202</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="J27" t="s">
-        <v>205</v>
-      </c>
-      <c r="K27" t="s"/>
-      <c r="L27" t="s"/>
+        <v>182</v>
+      </c>
+      <c r="K27" t="s">
+        <v>183</v>
+      </c>
+      <c r="L27" t="s">
+        <v>184</v>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>206</v>
+        <v>173</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
-      </c>
-      <c r="P27" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2</v>
-      </c>
-      <c r="R27" t="n">
-        <v>3</v>
-      </c>
-      <c r="S27" t="n">
-        <v>2</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>7998</v>
       </c>
-      <c r="B28" t="n">
-        <v>162769</v>
-      </c>
-      <c r="C28" t="s">
-        <v>207</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="J28" t="s">
-        <v>210</v>
-      </c>
-      <c r="K28" t="s">
-        <v>211</v>
-      </c>
-      <c r="L28" t="s">
-        <v>212</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="K28" t="s"/>
+      <c r="L28" t="s"/>
       <c r="M28" t="n">
         <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>206</v>
+        <v>173</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="P28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q28" t="n">
         <v>3</v>
@@ -3354,123 +3474,125 @@
         <v>3</v>
       </c>
       <c r="S28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
-      <c r="Y28" t="s">
-        <v>213</v>
-      </c>
+      <c r="Y28" t="s"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>7998</v>
       </c>
-      <c r="B29" t="n">
-        <v>162770</v>
-      </c>
-      <c r="C29" t="s">
-        <v>214</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="J29" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="K29" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="L29" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="M29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="O29" t="s">
-        <v>80</v>
-      </c>
-      <c r="P29" t="s"/>
-      <c r="Q29" t="s"/>
-      <c r="R29" t="s"/>
-      <c r="S29" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1</v>
+      </c>
       <c r="T29" t="s"/>
-      <c r="U29" t="s"/>
+      <c r="U29" t="n">
+        <v>2</v>
+      </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>7998</v>
       </c>
-      <c r="B30" t="n">
-        <v>40913</v>
-      </c>
-      <c r="C30" t="s">
-        <v>220</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="J30" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="K30" t="s"/>
-      <c r="L30" t="s"/>
+      <c r="L30" t="s">
+        <v>95</v>
+      </c>
       <c r="M30" t="n">
         <v>2</v>
       </c>
       <c r="N30" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="P30" t="n">
         <v>2</v>
@@ -3479,49 +3601,50 @@
         <v>2</v>
       </c>
       <c r="R30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>7998</v>
       </c>
-      <c r="B31" t="n">
-        <v>162771</v>
-      </c>
-      <c r="C31" t="s">
-        <v>225</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="J31" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="K31" t="s"/>
       <c r="L31" t="s"/>
@@ -3529,123 +3652,121 @@
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="O31" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="P31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>7998</v>
       </c>
-      <c r="B32" t="n">
-        <v>37573</v>
-      </c>
-      <c r="C32" t="s">
-        <v>230</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="J32" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="K32" t="s"/>
       <c r="L32" t="s"/>
       <c r="M32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="O32" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="P32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>7998</v>
       </c>
-      <c r="B33" t="n">
-        <v>29885</v>
-      </c>
-      <c r="C33" t="s">
-        <v>234</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="J33" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="K33" t="s"/>
       <c r="L33" t="s"/>
@@ -3653,349 +3774,349 @@
         <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="O33" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="P33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>7998</v>
       </c>
-      <c r="B34" t="n">
-        <v>102904</v>
-      </c>
-      <c r="C34" t="s">
-        <v>238</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="J34" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="K34" t="s"/>
-      <c r="L34" t="s"/>
+      <c r="L34" t="s">
+        <v>95</v>
+      </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="P34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>7998</v>
       </c>
-      <c r="B35" t="n">
-        <v>5091</v>
-      </c>
-      <c r="C35" t="s">
-        <v>243</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="J35" t="s">
-        <v>246</v>
-      </c>
-      <c r="K35" t="s"/>
-      <c r="L35" t="s"/>
+        <v>214</v>
+      </c>
+      <c r="K35" t="s">
+        <v>215</v>
+      </c>
+      <c r="L35" t="s">
+        <v>216</v>
+      </c>
       <c r="M35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
       <c r="O35" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="P35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q35" t="n">
         <v>1</v>
       </c>
       <c r="R35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S35" t="n">
         <v>1</v>
       </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>7998</v>
       </c>
-      <c r="B36" t="n">
-        <v>23873</v>
-      </c>
-      <c r="C36" t="s">
-        <v>248</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I36" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="J36" t="s">
-        <v>251</v>
-      </c>
-      <c r="K36" t="s"/>
-      <c r="L36" t="s"/>
+        <v>221</v>
+      </c>
+      <c r="K36" t="s">
+        <v>222</v>
+      </c>
+      <c r="L36" t="s">
+        <v>223</v>
+      </c>
       <c r="M36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N36" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c r="O36" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="P36" t="n">
         <v>2</v>
       </c>
       <c r="Q36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>7998</v>
       </c>
-      <c r="B37" t="n">
-        <v>162772</v>
-      </c>
-      <c r="C37" t="s">
-        <v>253</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I37" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="J37" t="s">
-        <v>256</v>
-      </c>
-      <c r="K37" t="s">
-        <v>257</v>
-      </c>
-      <c r="L37" t="s">
-        <v>258</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="K37" t="s"/>
+      <c r="L37" t="s"/>
       <c r="M37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="O37" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="P37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R37" t="n">
         <v>3</v>
       </c>
       <c r="S37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T37" t="s"/>
-      <c r="U37" t="n">
-        <v>4</v>
-      </c>
+      <c r="U37" t="s"/>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
-      <c r="Y37" t="s">
-        <v>258</v>
-      </c>
+      <c r="Y37" t="s"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>7998</v>
       </c>
-      <c r="B38" t="n">
-        <v>572</v>
-      </c>
-      <c r="C38" t="s">
-        <v>260</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I38" t="s">
-        <v>262</v>
+        <v>229</v>
       </c>
       <c r="J38" t="s">
-        <v>263</v>
+        <v>230</v>
       </c>
       <c r="K38" t="s">
-        <v>264</v>
+        <v>231</v>
       </c>
       <c r="L38" t="s">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="M38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N38" t="s">
-        <v>266</v>
+        <v>224</v>
       </c>
       <c r="O38" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="P38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -4003,172 +4124,153 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>267</v>
+        <v>233</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>7998</v>
       </c>
-      <c r="B39" t="n">
-        <v>9440</v>
-      </c>
-      <c r="C39" t="s">
-        <v>268</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I39" t="s">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="J39" t="s">
-        <v>271</v>
-      </c>
-      <c r="K39" t="s"/>
-      <c r="L39" t="s"/>
+        <v>236</v>
+      </c>
+      <c r="K39" t="s">
+        <v>237</v>
+      </c>
+      <c r="L39" t="s">
+        <v>238</v>
+      </c>
       <c r="M39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>266</v>
+        <v>224</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
-      </c>
-      <c r="P39" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>4</v>
-      </c>
-      <c r="R39" t="n">
-        <v>3</v>
-      </c>
-      <c r="S39" t="n">
-        <v>3</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="n">
-        <v>4</v>
-      </c>
+      <c r="U39" t="s"/>
       <c r="V39" t="n">
         <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>7998</v>
       </c>
-      <c r="B40" t="n">
-        <v>27971</v>
-      </c>
-      <c r="C40" t="s">
-        <v>272</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>273</v>
+        <v>239</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I40" t="s">
-        <v>274</v>
+        <v>240</v>
       </c>
       <c r="J40" t="s">
-        <v>275</v>
-      </c>
-      <c r="K40" t="s">
-        <v>276</v>
-      </c>
-      <c r="L40" t="s">
-        <v>277</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="K40" t="s"/>
+      <c r="L40" t="s"/>
       <c r="M40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
       <c r="O40" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="P40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
-      <c r="Y40" t="s">
-        <v>277</v>
-      </c>
+      <c r="Y40" t="s"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>7998</v>
       </c>
-      <c r="B41" t="n">
-        <v>162773</v>
-      </c>
-      <c r="C41" t="s">
-        <v>279</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>280</v>
+        <v>243</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I41" t="s">
-        <v>281</v>
+        <v>244</v>
       </c>
       <c r="J41" t="s">
-        <v>282</v>
+        <v>245</v>
       </c>
       <c r="K41" t="s"/>
       <c r="L41" t="s"/>
@@ -4176,83 +4278,80 @@
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="O41" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="P41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S41" t="n">
         <v>1</v>
       </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>7998</v>
       </c>
-      <c r="B42" t="n">
-        <v>162774</v>
-      </c>
-      <c r="C42" t="s">
-        <v>283</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>284</v>
+        <v>247</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I42" t="s">
-        <v>285</v>
+        <v>248</v>
       </c>
       <c r="J42" t="s">
-        <v>286</v>
+        <v>249</v>
       </c>
       <c r="K42" t="s"/>
-      <c r="L42" t="s">
-        <v>102</v>
-      </c>
+      <c r="L42" t="s"/>
       <c r="M42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>287</v>
+        <v>246</v>
       </c>
       <c r="O42" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="P42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q42" t="n">
         <v>4</v>
       </c>
       <c r="R42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S42" t="n">
         <v>4</v>
@@ -4266,40 +4365,34 @@
       </c>
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
-      <c r="Y42" t="s">
-        <v>104</v>
-      </c>
+      <c r="Y42" t="s"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>7998</v>
       </c>
-      <c r="B43" t="n">
-        <v>162775</v>
-      </c>
-      <c r="C43" t="s">
-        <v>288</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I43" t="s">
-        <v>290</v>
+        <v>251</v>
       </c>
       <c r="J43" t="s">
-        <v>291</v>
+        <v>252</v>
       </c>
       <c r="K43" t="s"/>
       <c r="L43" t="s"/>
@@ -4307,213 +4400,196 @@
         <v>3</v>
       </c>
       <c r="N43" t="s">
-        <v>292</v>
+        <v>246</v>
       </c>
       <c r="O43" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="P43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q43" t="n">
         <v>3</v>
       </c>
       <c r="R43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S43" t="n">
         <v>3</v>
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>7998</v>
       </c>
-      <c r="B44" t="n">
-        <v>162776</v>
-      </c>
-      <c r="C44" t="s">
-        <v>293</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>294</v>
+        <v>253</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I44" t="s">
-        <v>295</v>
+        <v>254</v>
       </c>
       <c r="J44" t="s">
-        <v>296</v>
-      </c>
-      <c r="K44" t="s">
-        <v>297</v>
-      </c>
-      <c r="L44" t="s">
-        <v>298</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="K44" t="s"/>
+      <c r="L44" t="s"/>
       <c r="M44" t="n">
-        <v>3</v>
-      </c>
-      <c r="N44" t="s"/>
-      <c r="O44" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>256</v>
+      </c>
+      <c r="O44" t="s">
+        <v>52</v>
+      </c>
       <c r="P44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
-      <c r="Y44" t="s">
-        <v>298</v>
-      </c>
+      <c r="Y44" t="s"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>7998</v>
       </c>
-      <c r="B45" t="n">
-        <v>162777</v>
-      </c>
-      <c r="C45" t="s">
-        <v>299</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>300</v>
+        <v>257</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I45" t="s">
-        <v>301</v>
+        <v>258</v>
       </c>
       <c r="J45" t="s">
-        <v>302</v>
-      </c>
-      <c r="K45" t="s">
-        <v>303</v>
-      </c>
-      <c r="L45" t="s">
-        <v>304</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="K45" t="s"/>
+      <c r="L45" t="s"/>
       <c r="M45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N45" t="s">
-        <v>305</v>
+        <v>260</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="P45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
-      <c r="Y45" t="s">
-        <v>306</v>
-      </c>
+      <c r="Y45" t="s"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>7998</v>
       </c>
-      <c r="B46" t="n">
-        <v>162778</v>
-      </c>
-      <c r="C46" t="s">
-        <v>307</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>308</v>
+        <v>261</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I46" t="s">
-        <v>309</v>
+        <v>262</v>
       </c>
       <c r="J46" t="s">
-        <v>310</v>
+        <v>263</v>
       </c>
       <c r="K46" t="s"/>
       <c r="L46" t="s"/>
       <c r="M46" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>311</v>
+        <v>264</v>
       </c>
       <c r="O46" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="P46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q46" t="n">
         <v>3</v>
@@ -4522,67 +4598,66 @@
         <v>3</v>
       </c>
       <c r="S46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>7998</v>
       </c>
-      <c r="B47" t="n">
-        <v>41810</v>
-      </c>
-      <c r="C47" t="s">
-        <v>312</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F47" t="s">
-        <v>313</v>
+        <v>265</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I47" t="s">
-        <v>314</v>
+        <v>266</v>
       </c>
       <c r="J47" t="s">
-        <v>315</v>
+        <v>267</v>
       </c>
       <c r="K47" t="s">
-        <v>316</v>
+        <v>268</v>
       </c>
       <c r="L47" t="s">
-        <v>317</v>
+        <v>269</v>
       </c>
       <c r="M47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>311</v>
+        <v>270</v>
       </c>
       <c r="O47" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="P47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R47" t="n">
         <v>3</v>
@@ -4592,7 +4667,7 @@
       </c>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
@@ -4600,70 +4675,66 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>318</v>
+        <v>269</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>7998</v>
       </c>
-      <c r="B48" t="n">
-        <v>162779</v>
-      </c>
-      <c r="C48" t="s">
-        <v>319</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>320</v>
+        <v>271</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I48" t="s">
-        <v>321</v>
+        <v>272</v>
       </c>
       <c r="J48" t="s">
-        <v>322</v>
+        <v>273</v>
       </c>
       <c r="K48" t="s">
-        <v>323</v>
+        <v>274</v>
       </c>
       <c r="L48" t="s">
-        <v>324</v>
+        <v>275</v>
       </c>
       <c r="M48" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>325</v>
+        <v>276</v>
       </c>
       <c r="O48" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="P48" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q48" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R48" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S48" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
@@ -4671,141 +4742,127 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>326</v>
+        <v>277</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>7998</v>
       </c>
-      <c r="B49" t="n">
-        <v>162780</v>
-      </c>
-      <c r="C49" t="s">
-        <v>327</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F49" t="s">
-        <v>328</v>
+        <v>278</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I49" t="s">
-        <v>329</v>
+        <v>279</v>
       </c>
       <c r="J49" t="s">
-        <v>330</v>
-      </c>
-      <c r="K49" t="s">
-        <v>331</v>
-      </c>
-      <c r="L49" t="s">
-        <v>332</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="K49" t="s"/>
+      <c r="L49" t="s"/>
       <c r="M49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="O49" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="P49" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q49" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R49" t="n">
         <v>3</v>
       </c>
       <c r="S49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
       </c>
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
-      <c r="Y49" t="s">
-        <v>332</v>
-      </c>
+      <c r="Y49" t="s"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>7998</v>
       </c>
-      <c r="B50" t="n">
-        <v>1747</v>
-      </c>
-      <c r="C50" t="s">
-        <v>334</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F50" t="s">
-        <v>335</v>
+        <v>281</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I50" t="s">
-        <v>336</v>
+        <v>282</v>
       </c>
       <c r="J50" t="s">
-        <v>337</v>
+        <v>283</v>
       </c>
       <c r="K50" t="s">
-        <v>338</v>
+        <v>284</v>
       </c>
       <c r="L50" t="s">
-        <v>339</v>
+        <v>285</v>
       </c>
       <c r="M50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>333</v>
+        <v>286</v>
       </c>
       <c r="O50" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
@@ -4813,78 +4870,1557 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>339</v>
+        <v>285</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>7998</v>
       </c>
-      <c r="B51" t="n">
-        <v>82778</v>
-      </c>
-      <c r="C51" t="s">
-        <v>340</v>
-      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F51" t="s">
-        <v>341</v>
+        <v>287</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I51" t="s">
-        <v>342</v>
+        <v>288</v>
       </c>
       <c r="J51" t="s">
-        <v>343</v>
-      </c>
-      <c r="K51" t="s">
-        <v>344</v>
-      </c>
-      <c r="L51" t="s">
-        <v>345</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="K51" t="s"/>
+      <c r="L51" t="s"/>
       <c r="M51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>333</v>
+        <v>286</v>
       </c>
       <c r="O51" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="P51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S51" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
-      <c r="Y51" t="s">
+      <c r="Y51" t="s"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>7998</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>290</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>291</v>
+      </c>
+      <c r="J52" t="s">
+        <v>292</v>
+      </c>
+      <c r="K52" t="s"/>
+      <c r="L52" t="s"/>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>293</v>
+      </c>
+      <c r="O52" t="s">
+        <v>62</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>7998</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>294</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>295</v>
+      </c>
+      <c r="J53" t="s">
+        <v>296</v>
+      </c>
+      <c r="K53" t="s"/>
+      <c r="L53" t="s"/>
+      <c r="M53" t="n">
+        <v>2</v>
+      </c>
+      <c r="N53" t="s">
+        <v>297</v>
+      </c>
+      <c r="O53" t="s">
+        <v>76</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>2</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>7998</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>298</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>299</v>
+      </c>
+      <c r="J54" t="s">
+        <v>300</v>
+      </c>
+      <c r="K54" t="s"/>
+      <c r="L54" t="s">
+        <v>95</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2</v>
+      </c>
+      <c r="N54" t="s">
+        <v>293</v>
+      </c>
+      <c r="O54" t="s">
+        <v>90</v>
+      </c>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>1</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>7998</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>301</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>302</v>
+      </c>
+      <c r="J55" t="s">
+        <v>303</v>
+      </c>
+      <c r="K55" t="s">
+        <v>304</v>
+      </c>
+      <c r="L55" t="s">
+        <v>305</v>
+      </c>
+      <c r="M55" t="n">
+        <v>2</v>
+      </c>
+      <c r="N55" t="s">
+        <v>306</v>
+      </c>
+      <c r="O55" t="s">
+        <v>90</v>
+      </c>
+      <c r="P55" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>2</v>
+      </c>
+      <c r="R55" t="n">
+        <v>2</v>
+      </c>
+      <c r="S55" t="n">
+        <v>2</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>3</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>7998</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>307</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>308</v>
+      </c>
+      <c r="J56" t="s">
+        <v>309</v>
+      </c>
+      <c r="K56" t="s"/>
+      <c r="L56" t="s"/>
+      <c r="M56" t="n">
+        <v>2</v>
+      </c>
+      <c r="N56" t="s">
+        <v>310</v>
+      </c>
+      <c r="O56" t="s">
+        <v>62</v>
+      </c>
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>2</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>3</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>2</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>7998</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>311</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>312</v>
+      </c>
+      <c r="J57" t="s">
+        <v>313</v>
+      </c>
+      <c r="K57" t="s"/>
+      <c r="L57" t="s">
+        <v>95</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>310</v>
+      </c>
+      <c r="O57" t="s">
+        <v>62</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>3</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>7998</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>314</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>315</v>
+      </c>
+      <c r="J58" t="s">
+        <v>316</v>
+      </c>
+      <c r="K58" t="s"/>
+      <c r="L58" t="s"/>
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="s">
+        <v>317</v>
+      </c>
+      <c r="O58" t="s">
+        <v>76</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="n">
+        <v>2</v>
+      </c>
+      <c r="S58" t="n">
+        <v>3</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>7998</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>318</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>319</v>
+      </c>
+      <c r="J59" t="s">
+        <v>320</v>
+      </c>
+      <c r="K59" t="s">
+        <v>321</v>
+      </c>
+      <c r="L59" t="s">
+        <v>322</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s"/>
+      <c r="O59" t="s"/>
+      <c r="P59" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>3</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>7998</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>323</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>324</v>
+      </c>
+      <c r="J60" t="s">
+        <v>325</v>
+      </c>
+      <c r="K60" t="s">
+        <v>326</v>
+      </c>
+      <c r="L60" t="s">
+        <v>327</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="s">
+        <v>328</v>
+      </c>
+      <c r="O60" t="s">
+        <v>52</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>3</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>3</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>7998</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>330</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>331</v>
+      </c>
+      <c r="J61" t="s">
+        <v>332</v>
+      </c>
+      <c r="K61" t="s"/>
+      <c r="L61" t="s"/>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>333</v>
+      </c>
+      <c r="O61" t="s">
+        <v>76</v>
+      </c>
+      <c r="P61" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>3</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3</v>
+      </c>
+      <c r="S61" t="n">
+        <v>3</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>3</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>7998</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>334</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>335</v>
+      </c>
+      <c r="J62" t="s">
+        <v>336</v>
+      </c>
+      <c r="K62" t="s">
+        <v>337</v>
+      </c>
+      <c r="L62" t="s">
+        <v>338</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>333</v>
+      </c>
+      <c r="O62" t="s">
+        <v>76</v>
+      </c>
+      <c r="P62" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>2</v>
+      </c>
+      <c r="R62" t="n">
+        <v>3</v>
+      </c>
+      <c r="S62" t="n">
+        <v>3</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>3</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>7998</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>340</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>341</v>
+      </c>
+      <c r="J63" t="s">
+        <v>342</v>
+      </c>
+      <c r="K63" t="s">
+        <v>343</v>
+      </c>
+      <c r="L63" t="s">
+        <v>344</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
+        <v>345</v>
+      </c>
+      <c r="O63" t="s">
+        <v>62</v>
+      </c>
+      <c r="P63" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>1</v>
+      </c>
+      <c r="R63" t="n">
+        <v>1</v>
+      </c>
+      <c r="S63" t="n">
+        <v>1</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>1</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
         <v>346</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>7998</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>347</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>348</v>
+      </c>
+      <c r="J64" t="s">
+        <v>349</v>
+      </c>
+      <c r="K64" t="s">
+        <v>350</v>
+      </c>
+      <c r="L64" t="s">
+        <v>351</v>
+      </c>
+      <c r="M64" t="n">
+        <v>2</v>
+      </c>
+      <c r="N64" t="s">
+        <v>352</v>
+      </c>
+      <c r="O64" t="s">
+        <v>62</v>
+      </c>
+      <c r="P64" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>1</v>
+      </c>
+      <c r="R64" t="n">
+        <v>3</v>
+      </c>
+      <c r="S64" t="n">
+        <v>2</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>1</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>7998</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>353</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>354</v>
+      </c>
+      <c r="J65" t="s">
+        <v>355</v>
+      </c>
+      <c r="K65" t="s">
+        <v>356</v>
+      </c>
+      <c r="L65" t="s">
+        <v>357</v>
+      </c>
+      <c r="M65" t="n">
+        <v>2</v>
+      </c>
+      <c r="N65" t="s">
+        <v>352</v>
+      </c>
+      <c r="O65" t="s">
+        <v>62</v>
+      </c>
+      <c r="P65" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>2</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3</v>
+      </c>
+      <c r="S65" t="n">
+        <v>1</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>2</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>7998</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>358</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>359</v>
+      </c>
+      <c r="J66" t="s">
+        <v>360</v>
+      </c>
+      <c r="K66" t="s">
+        <v>361</v>
+      </c>
+      <c r="L66" t="s">
+        <v>362</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3</v>
+      </c>
+      <c r="N66" t="s">
+        <v>352</v>
+      </c>
+      <c r="O66" t="s">
+        <v>76</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>3</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>7998</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>364</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>365</v>
+      </c>
+      <c r="J67" t="s">
+        <v>366</v>
+      </c>
+      <c r="K67" t="s">
+        <v>367</v>
+      </c>
+      <c r="L67" t="s">
+        <v>368</v>
+      </c>
+      <c r="M67" t="n">
+        <v>2</v>
+      </c>
+      <c r="N67" t="s">
+        <v>369</v>
+      </c>
+      <c r="O67" t="s">
+        <v>76</v>
+      </c>
+      <c r="P67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>2</v>
+      </c>
+      <c r="R67" t="n">
+        <v>2</v>
+      </c>
+      <c r="S67" t="n">
+        <v>2</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>7998</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>370</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>371</v>
+      </c>
+      <c r="J68" t="s">
+        <v>372</v>
+      </c>
+      <c r="K68" t="s">
+        <v>373</v>
+      </c>
+      <c r="L68" t="s">
+        <v>374</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" t="s">
+        <v>375</v>
+      </c>
+      <c r="O68" t="s">
+        <v>62</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="n">
+        <v>2</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>1</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>7998</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>377</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>378</v>
+      </c>
+      <c r="J69" t="s">
+        <v>379</v>
+      </c>
+      <c r="K69" t="s">
+        <v>380</v>
+      </c>
+      <c r="L69" t="s">
+        <v>381</v>
+      </c>
+      <c r="M69" t="n">
+        <v>2</v>
+      </c>
+      <c r="N69" t="s">
+        <v>382</v>
+      </c>
+      <c r="O69" t="s">
+        <v>52</v>
+      </c>
+      <c r="P69" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>2</v>
+      </c>
+      <c r="R69" t="n">
+        <v>2</v>
+      </c>
+      <c r="S69" t="n">
+        <v>2</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>3</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>7998</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>383</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s">
+        <v>384</v>
+      </c>
+      <c r="J70" t="s">
+        <v>385</v>
+      </c>
+      <c r="K70" t="s">
+        <v>386</v>
+      </c>
+      <c r="L70" t="s">
+        <v>387</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="s">
+        <v>382</v>
+      </c>
+      <c r="O70" t="s">
+        <v>62</v>
+      </c>
+      <c r="P70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>7998</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
+        <v>389</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s">
+        <v>390</v>
+      </c>
+      <c r="J71" t="s">
+        <v>391</v>
+      </c>
+      <c r="K71" t="s">
+        <v>392</v>
+      </c>
+      <c r="L71" t="s">
+        <v>393</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="s">
+        <v>394</v>
+      </c>
+      <c r="O71" t="s">
+        <v>62</v>
+      </c>
+      <c r="P71" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="n">
+        <v>1</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>1</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>7998</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s">
+        <v>396</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" t="s">
+        <v>397</v>
+      </c>
+      <c r="J72" t="s">
+        <v>398</v>
+      </c>
+      <c r="K72" t="s">
+        <v>399</v>
+      </c>
+      <c r="L72" t="s">
+        <v>400</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" t="s">
+        <v>401</v>
+      </c>
+      <c r="O72" t="s">
+        <v>52</v>
+      </c>
+      <c r="P72" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="n">
+        <v>1</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>2</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>7998</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s">
+        <v>402</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" t="s">
+        <v>403</v>
+      </c>
+      <c r="J73" t="s">
+        <v>404</v>
+      </c>
+      <c r="K73" t="s">
+        <v>405</v>
+      </c>
+      <c r="L73" t="s">
+        <v>406</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>407</v>
+      </c>
+      <c r="O73" t="s">
+        <v>76</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>7998</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s">
+        <v>409</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" t="s">
+        <v>410</v>
+      </c>
+      <c r="J74" t="s">
+        <v>411</v>
+      </c>
+      <c r="K74" t="s">
+        <v>412</v>
+      </c>
+      <c r="L74" t="s">
+        <v>413</v>
+      </c>
+      <c r="M74" t="n">
+        <v>2</v>
+      </c>
+      <c r="N74" t="s">
+        <v>414</v>
+      </c>
+      <c r="O74" t="s">
+        <v>52</v>
+      </c>
+      <c r="P74" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>2</v>
+      </c>
+      <c r="R74" t="n">
+        <v>3</v>
+      </c>
+      <c r="S74" t="n">
+        <v>1</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>3</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>415</v>
       </c>
     </row>
   </sheetData>
